--- a/Excel/Data-cleaning/Sales-Data.xlsx
+++ b/Excel/Data-cleaning/Sales-Data.xlsx
@@ -2545,7 +2545,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
@@ -3152,8 +3153,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3206,6 +3208,11 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3213,6 +3220,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D823" totalsRowShown="0">
+  <tableColumns count="4">
+    <tableColumn id="1" name="Order ID"/>
+    <tableColumn id="2" name="Segment"/>
+    <tableColumn id="3" name="Ship mode"/>
+    <tableColumn id="4" name="Sales" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3475,7 +3494,7 @@
   <sheetPr/>
   <dimension ref="A1:M826"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="A1" sqref="A$1:N$1048576"/>
     </sheetView>
   </sheetViews>
@@ -10185,8 +10204,8 @@
   <sheetPr/>
   <dimension ref="A1:R826"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:M826"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -10290,7 +10309,7 @@
         <v>91.056</v>
       </c>
       <c r="O4" t="str">
-        <f t="shared" ref="O4:O9" si="0">A4:A826</f>
+        <f>A4:A826</f>
         <v>CA-2011-100293</v>
       </c>
       <c r="P4" t="str">
@@ -10314,7 +10333,7 @@
         <v>129.44</v>
       </c>
       <c r="O5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="O4:O9" si="0">A5:A827</f>
         <v>CA-2011-100706</v>
       </c>
       <c r="P5" t="str">
@@ -30063,7 +30082,7 @@
   <dimension ref="A1:D823"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -30071,7 +30090,7 @@
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="23.3333333333333" customWidth="1"/>
     <col min="3" max="3" width="24.2222222222222" customWidth="1"/>
-    <col min="4" max="4" width="12.7777777777778" customWidth="1"/>
+    <col min="4" max="4" width="12.7777777777778" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -30084,7 +30103,7 @@
       <c r="C1" t="s">
         <v>838</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>839</v>
       </c>
     </row>
@@ -30098,7 +30117,7 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>91.056</v>
       </c>
     </row>
@@ -30112,7 +30131,7 @@
       <c r="C3" t="s">
         <v>840</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>129.44</v>
       </c>
     </row>
@@ -30126,7 +30145,7 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>605.47</v>
       </c>
     </row>
@@ -30140,7 +30159,7 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>788.86</v>
       </c>
     </row>
@@ -30154,7 +30173,7 @@
       <c r="C6" t="s">
         <v>840</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>13.36</v>
       </c>
     </row>
@@ -30168,7 +30187,7 @@
       <c r="C7" t="s">
         <v>840</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>542.34</v>
       </c>
     </row>
@@ -30182,7 +30201,7 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>1.869</v>
       </c>
     </row>
@@ -30196,7 +30215,7 @@
       <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>865.5</v>
       </c>
     </row>
@@ -30210,7 +30229,7 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>1044.44</v>
       </c>
     </row>
@@ -30224,7 +30243,7 @@
       <c r="C11" t="s">
         <v>840</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>4251.92</v>
       </c>
     </row>
@@ -30238,7 +30257,7 @@
       <c r="C12" t="s">
         <v>5</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>242.546</v>
       </c>
     </row>
@@ -30252,7 +30271,7 @@
       <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>149.95</v>
       </c>
     </row>
@@ -30266,7 +30285,7 @@
       <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="1">
         <v>21.19</v>
       </c>
     </row>
@@ -30280,7 +30299,7 @@
       <c r="C15" t="s">
         <v>5</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="1">
         <v>590.762</v>
       </c>
     </row>
@@ -30294,7 +30313,7 @@
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="1">
         <v>616.14</v>
       </c>
     </row>
@@ -30308,7 +30327,7 @@
       <c r="C17" t="s">
         <v>5</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="1">
         <v>12.78</v>
       </c>
     </row>
@@ -30322,7 +30341,7 @@
       <c r="C18" t="s">
         <v>8</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="1">
         <v>310.88</v>
       </c>
     </row>
@@ -30336,7 +30355,7 @@
       <c r="C19" t="s">
         <v>8</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="1">
         <v>23.472</v>
       </c>
     </row>
@@ -30350,7 +30369,7 @@
       <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="1">
         <v>661.504</v>
       </c>
     </row>
@@ -30364,7 +30383,7 @@
       <c r="C21" t="s">
         <v>8</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="1">
         <v>10.368</v>
       </c>
     </row>
@@ -30378,7 +30397,7 @@
       <c r="C22" t="s">
         <v>5</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="1">
         <v>243.6</v>
       </c>
     </row>
@@ -30392,7 +30411,7 @@
       <c r="C23" t="s">
         <v>840</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="1">
         <v>545.94</v>
       </c>
     </row>
@@ -30406,7 +30425,7 @@
       <c r="C24" t="s">
         <v>8</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="1">
         <v>302.376</v>
       </c>
     </row>
@@ -30420,7 +30439,7 @@
       <c r="C25" t="s">
         <v>840</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="1">
         <v>2216.8</v>
       </c>
     </row>
@@ -30434,7 +30453,7 @@
       <c r="C26" t="s">
         <v>840</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="1">
         <v>25.248</v>
       </c>
     </row>
@@ -30448,7 +30467,7 @@
       <c r="C27" t="s">
         <v>8</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="1">
         <v>484.79</v>
       </c>
     </row>
@@ -30462,7 +30481,7 @@
       <c r="C28" t="s">
         <v>5</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="1">
         <v>47.32</v>
       </c>
     </row>
@@ -30476,7 +30495,7 @@
       <c r="C29" t="s">
         <v>8</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="1">
         <v>1.167</v>
       </c>
     </row>
@@ -30490,7 +30509,7 @@
       <c r="C30" t="s">
         <v>6</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="1">
         <v>11.85</v>
       </c>
     </row>
@@ -30504,7 +30523,7 @@
       <c r="C31" t="s">
         <v>5</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>9.568</v>
       </c>
     </row>
@@ -30518,7 +30537,7 @@
       <c r="C32" t="s">
         <v>8</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="1">
         <v>16.23</v>
       </c>
     </row>
@@ -30532,7 +30551,7 @@
       <c r="C33" t="s">
         <v>8</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="1">
         <v>1417.35</v>
       </c>
     </row>
@@ -30546,7 +30565,7 @@
       <c r="C34" t="s">
         <v>8</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="1">
         <v>337.088</v>
       </c>
     </row>
@@ -30560,7 +30579,7 @@
       <c r="C35" t="s">
         <v>840</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="1">
         <v>782.63</v>
       </c>
     </row>
@@ -30574,7 +30593,7 @@
       <c r="C36" t="s">
         <v>8</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="1">
         <v>605.34</v>
       </c>
     </row>
@@ -30588,7 +30607,7 @@
       <c r="C37" t="s">
         <v>840</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="1">
         <v>62.91</v>
       </c>
     </row>
@@ -30602,7 +30621,7 @@
       <c r="C38" t="s">
         <v>8</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="1">
         <v>256.48</v>
       </c>
     </row>
@@ -30616,7 +30635,7 @@
       <c r="C39" t="s">
         <v>6</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="1">
         <v>354.9</v>
       </c>
     </row>
@@ -30630,7 +30649,7 @@
       <c r="C40" t="s">
         <v>8</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="1">
         <v>362.176</v>
       </c>
     </row>
@@ -30644,7 +30663,7 @@
       <c r="C41" t="s">
         <v>8</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="1">
         <v>186.304</v>
       </c>
     </row>
@@ -30658,7 +30677,7 @@
       <c r="C42" t="s">
         <v>8</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="1">
         <v>15.552</v>
       </c>
     </row>
@@ -30672,7 +30691,7 @@
       <c r="C43" t="s">
         <v>8</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="1">
         <v>202.896</v>
       </c>
     </row>
@@ -30686,7 +30705,7 @@
       <c r="C44" t="s">
         <v>8</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="1">
         <v>3333.9</v>
       </c>
     </row>
@@ -30700,7 +30719,7 @@
       <c r="C45" t="s">
         <v>840</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="1">
         <v>25.5</v>
       </c>
     </row>
@@ -30714,7 +30733,7 @@
       <c r="C46" t="s">
         <v>8</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="1">
         <v>799.92</v>
       </c>
     </row>
@@ -30728,7 +30747,7 @@
       <c r="C47" t="s">
         <v>840</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="1">
         <v>1979.89</v>
       </c>
     </row>
@@ -30742,7 +30761,7 @@
       <c r="C48" t="s">
         <v>8</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="1">
         <v>43.68</v>
       </c>
     </row>
@@ -30756,7 +30775,7 @@
       <c r="C49" t="s">
         <v>840</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="1">
         <v>66.616</v>
       </c>
     </row>
@@ -30770,7 +30789,7 @@
       <c r="C50" t="s">
         <v>8</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="1">
         <v>111.15</v>
       </c>
     </row>
@@ -30784,7 +30803,7 @@
       <c r="C51" t="s">
         <v>8</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="1">
         <v>199.296</v>
       </c>
     </row>
@@ -30798,7 +30817,7 @@
       <c r="C52" t="s">
         <v>840</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <v>40.05</v>
       </c>
     </row>
@@ -30812,7 +30831,7 @@
       <c r="C53" t="s">
         <v>5</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
         <v>8.96</v>
       </c>
     </row>
@@ -30826,7 +30845,7 @@
       <c r="C54" t="s">
         <v>840</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
         <v>479.984</v>
       </c>
     </row>
@@ -30840,7 +30859,7 @@
       <c r="C55" t="s">
         <v>5</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
         <v>1812.01</v>
       </c>
     </row>
@@ -30854,7 +30873,7 @@
       <c r="C56" t="s">
         <v>8</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>106.944</v>
       </c>
     </row>
@@ -30868,7 +30887,7 @@
       <c r="C57" t="s">
         <v>5</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="1">
         <v>9.96</v>
       </c>
     </row>
@@ -30882,7 +30901,7 @@
       <c r="C58" t="s">
         <v>8</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="1">
         <v>2692.329</v>
       </c>
     </row>
@@ -30896,7 +30915,7 @@
       <c r="C59" t="s">
         <v>840</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="1">
         <v>4.608</v>
       </c>
     </row>
@@ -30910,7 +30929,7 @@
       <c r="C60" t="s">
         <v>8</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="1">
         <v>1508.13</v>
       </c>
     </row>
@@ -30924,7 +30943,7 @@
       <c r="C61" t="s">
         <v>8</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="1">
         <v>254.97</v>
       </c>
     </row>
@@ -30938,7 +30957,7 @@
       <c r="C62" t="s">
         <v>8</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="1">
         <v>752.92</v>
       </c>
     </row>
@@ -30952,7 +30971,7 @@
       <c r="C63" t="s">
         <v>8</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="1">
         <v>1022.61</v>
       </c>
     </row>
@@ -30966,7 +30985,7 @@
       <c r="C64" t="s">
         <v>840</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="1">
         <v>12.39</v>
       </c>
     </row>
@@ -30980,7 +30999,7 @@
       <c r="C65" t="s">
         <v>5</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="1">
         <v>34.2</v>
       </c>
     </row>
@@ -30994,7 +31013,7 @@
       <c r="C66" t="s">
         <v>6</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="1">
         <v>1142.165</v>
       </c>
     </row>
@@ -31008,7 +31027,7 @@
       <c r="C67" t="s">
         <v>840</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="1">
         <v>7.632</v>
       </c>
     </row>
@@ -31022,7 +31041,7 @@
       <c r="C68" t="s">
         <v>8</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="1">
         <v>95.968</v>
       </c>
     </row>
@@ -31036,7 +31055,7 @@
       <c r="C69" t="s">
         <v>6</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="1">
         <v>193.152</v>
       </c>
     </row>
@@ -31050,7 +31069,7 @@
       <c r="C70" t="s">
         <v>5</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="1">
         <v>321.56</v>
       </c>
     </row>
@@ -31064,7 +31083,7 @@
       <c r="C71" t="s">
         <v>5</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="1">
         <v>389.74</v>
       </c>
     </row>
@@ -31078,7 +31097,7 @@
       <c r="C72" t="s">
         <v>840</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="1">
         <v>1441.3</v>
       </c>
     </row>
@@ -31092,7 +31111,7 @@
       <c r="C73" t="s">
         <v>8</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="1">
         <v>47.79</v>
       </c>
     </row>
@@ -31106,7 +31125,7 @@
       <c r="C74" t="s">
         <v>8</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="1">
         <v>732.312</v>
       </c>
     </row>
@@ -31120,7 +31139,7 @@
       <c r="C75" t="s">
         <v>8</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="1">
         <v>18.24</v>
       </c>
     </row>
@@ -31134,7 +31153,7 @@
       <c r="C76" t="s">
         <v>8</v>
       </c>
-      <c r="D76">
+      <c r="D76" s="1">
         <v>828.84</v>
       </c>
     </row>
@@ -31148,7 +31167,7 @@
       <c r="C77" t="s">
         <v>5</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="1">
         <v>2884.37</v>
       </c>
     </row>
@@ -31162,7 +31181,7 @@
       <c r="C78" t="s">
         <v>5</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="1">
         <v>31.984</v>
       </c>
     </row>
@@ -31176,7 +31195,7 @@
       <c r="C79" t="s">
         <v>8</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="1">
         <v>88.768</v>
       </c>
     </row>
@@ -31190,7 +31209,7 @@
       <c r="C80" t="s">
         <v>8</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="1">
         <v>24.56</v>
       </c>
     </row>
@@ -31204,7 +31223,7 @@
       <c r="C81" t="s">
         <v>8</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="1">
         <v>192.424</v>
       </c>
     </row>
@@ -31218,7 +31237,7 @@
       <c r="C82" t="s">
         <v>8</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="1">
         <v>37.44</v>
       </c>
     </row>
@@ -31232,7 +31251,7 @@
       <c r="C83" t="s">
         <v>5</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="1">
         <v>405.456</v>
       </c>
     </row>
@@ -31246,7 +31265,7 @@
       <c r="C84" t="s">
         <v>8</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="1">
         <v>69.216</v>
       </c>
     </row>
@@ -31260,7 +31279,7 @@
       <c r="C85" t="s">
         <v>840</v>
       </c>
-      <c r="D85">
+      <c r="D85" s="1">
         <v>69.9</v>
       </c>
     </row>
@@ -31274,7 +31293,7 @@
       <c r="C86" t="s">
         <v>6</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="1">
         <v>23.472</v>
       </c>
     </row>
@@ -31288,7 +31307,7 @@
       <c r="C87" t="s">
         <v>8</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="1">
         <v>15.384</v>
       </c>
     </row>
@@ -31302,7 +31321,7 @@
       <c r="C88" t="s">
         <v>8</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="1">
         <v>180.93</v>
       </c>
     </row>
@@ -31316,7 +31335,7 @@
       <c r="C89" t="s">
         <v>8</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="1">
         <v>23661.228</v>
       </c>
     </row>
@@ -31330,7 +31349,7 @@
       <c r="C90" t="s">
         <v>840</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="1">
         <v>26.128</v>
       </c>
     </row>
@@ -31344,7 +31363,7 @@
       <c r="C91" t="s">
         <v>8</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="1">
         <v>147.344</v>
       </c>
     </row>
@@ -31358,7 +31377,7 @@
       <c r="C92" t="s">
         <v>8</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="1">
         <v>13.62</v>
       </c>
     </row>
@@ -31372,7 +31391,7 @@
       <c r="C93" t="s">
         <v>8</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="1">
         <v>22.32</v>
       </c>
     </row>
@@ -31386,7 +31405,7 @@
       <c r="C94" t="s">
         <v>8</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="1">
         <v>6.642</v>
       </c>
     </row>
@@ -31400,7 +31419,7 @@
       <c r="C95" t="s">
         <v>8</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="1">
         <v>54.83</v>
       </c>
     </row>
@@ -31414,7 +31433,7 @@
       <c r="C96" t="s">
         <v>8</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="1">
         <v>364.93</v>
       </c>
     </row>
@@ -31428,7 +31447,7 @@
       <c r="C97" t="s">
         <v>8</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="1">
         <v>370.782</v>
       </c>
     </row>
@@ -31442,7 +31461,7 @@
       <c r="C98" t="s">
         <v>8</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="1">
         <v>2.816</v>
       </c>
     </row>
@@ -31456,7 +31475,7 @@
       <c r="C99" t="s">
         <v>8</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="1">
         <v>129.92</v>
       </c>
     </row>
@@ -31470,7 +31489,7 @@
       <c r="C100" t="s">
         <v>6</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="1">
         <v>310.688</v>
       </c>
     </row>
@@ -31484,7 +31503,7 @@
       <c r="C101" t="s">
         <v>8</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="1">
         <v>1793.98</v>
       </c>
     </row>
@@ -31498,7 +31517,7 @@
       <c r="C102" t="s">
         <v>8</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="1">
         <v>75.16</v>
       </c>
     </row>
@@ -31512,7 +31531,7 @@
       <c r="C103" t="s">
         <v>8</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="1">
         <v>4.368</v>
       </c>
     </row>
@@ -31526,7 +31545,7 @@
       <c r="C104" t="s">
         <v>8</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="1">
         <v>521.92</v>
       </c>
     </row>
@@ -31540,7 +31559,7 @@
       <c r="C105" t="s">
         <v>840</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="1">
         <v>1015.816</v>
       </c>
     </row>
@@ -31554,7 +31573,7 @@
       <c r="C106" t="s">
         <v>5</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="1">
         <v>286.65</v>
       </c>
     </row>
@@ -31568,7 +31587,7 @@
       <c r="C107" t="s">
         <v>840</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="1">
         <v>619.848</v>
       </c>
     </row>
@@ -31582,7 +31601,7 @@
       <c r="C108" t="s">
         <v>8</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="1">
         <v>39.072</v>
       </c>
     </row>
@@ -31596,7 +31615,7 @@
       <c r="C109" t="s">
         <v>8</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="1">
         <v>42.208</v>
       </c>
     </row>
@@ -31610,7 +31629,7 @@
       <c r="C110" t="s">
         <v>840</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="1">
         <v>19.456</v>
       </c>
     </row>
@@ -31624,7 +31643,7 @@
       <c r="C111" t="s">
         <v>840</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="1">
         <v>47.79</v>
       </c>
     </row>
@@ -31638,7 +31657,7 @@
       <c r="C112" t="s">
         <v>8</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="1">
         <v>457.744</v>
       </c>
     </row>
@@ -31652,7 +31671,7 @@
       <c r="C113" t="s">
         <v>840</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="1">
         <v>155.456</v>
       </c>
     </row>
@@ -31666,7 +31685,7 @@
       <c r="C114" t="s">
         <v>840</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="1">
         <v>471.92</v>
       </c>
     </row>
@@ -31680,7 +31699,7 @@
       <c r="C115" t="s">
         <v>5</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="1">
         <v>514.03</v>
       </c>
     </row>
@@ -31694,7 +31713,7 @@
       <c r="C116" t="s">
         <v>840</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="1">
         <v>682.91</v>
       </c>
     </row>
@@ -31708,7 +31727,7 @@
       <c r="C117" t="s">
         <v>840</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="1">
         <v>129.33</v>
       </c>
     </row>
@@ -31722,7 +31741,7 @@
       <c r="C118" t="s">
         <v>6</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="1">
         <v>158.71</v>
       </c>
     </row>
@@ -31736,7 +31755,7 @@
       <c r="C119" t="s">
         <v>8</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="1">
         <v>149.56</v>
       </c>
     </row>
@@ -31750,7 +31769,7 @@
       <c r="C120" t="s">
         <v>8</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="1">
         <v>105.52</v>
       </c>
     </row>
@@ -31764,7 +31783,7 @@
       <c r="C121" t="s">
         <v>5</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="1">
         <v>1000.95</v>
       </c>
     </row>
@@ -31778,7 +31797,7 @@
       <c r="C122" t="s">
         <v>8</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="1">
         <v>177.68</v>
       </c>
     </row>
@@ -31792,7 +31811,7 @@
       <c r="C123" t="s">
         <v>8</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="1">
         <v>581.104</v>
       </c>
     </row>
@@ -31806,7 +31825,7 @@
       <c r="C124" t="s">
         <v>8</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="1">
         <v>32.4</v>
       </c>
     </row>
@@ -31820,7 +31839,7 @@
       <c r="C125" t="s">
         <v>840</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="1">
         <v>1287.26</v>
       </c>
     </row>
@@ -31834,7 +31853,7 @@
       <c r="C126" t="s">
         <v>8</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="1">
         <v>14.67</v>
       </c>
     </row>
@@ -31848,7 +31867,7 @@
       <c r="C127" t="s">
         <v>8</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="1">
         <v>3769.56</v>
       </c>
     </row>
@@ -31862,7 +31881,7 @@
       <c r="C128" t="s">
         <v>5</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="1">
         <v>116.85</v>
       </c>
     </row>
@@ -31876,7 +31895,7 @@
       <c r="C129" t="s">
         <v>8</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="1">
         <v>1220.67</v>
       </c>
     </row>
@@ -31890,7 +31909,7 @@
       <c r="C130" t="s">
         <v>5</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="1">
         <v>9.912</v>
       </c>
     </row>
@@ -31904,7 +31923,7 @@
       <c r="C131" t="s">
         <v>840</v>
       </c>
-      <c r="D131">
+      <c r="D131" s="1">
         <v>7.872</v>
       </c>
     </row>
@@ -31918,7 +31937,7 @@
       <c r="C132" t="s">
         <v>8</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="1">
         <v>1395.673</v>
       </c>
     </row>
@@ -31932,7 +31951,7 @@
       <c r="C133" t="s">
         <v>6</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="1">
         <v>259.29</v>
       </c>
     </row>
@@ -31946,7 +31965,7 @@
       <c r="C134" t="s">
         <v>8</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="1">
         <v>773.7</v>
       </c>
     </row>
@@ -31960,7 +31979,7 @@
       <c r="C135" t="s">
         <v>840</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="1">
         <v>40.54</v>
       </c>
     </row>
@@ -31974,7 +31993,7 @@
       <c r="C136" t="s">
         <v>5</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="1">
         <v>39.128</v>
       </c>
     </row>
@@ -31988,7 +32007,7 @@
       <c r="C137" t="s">
         <v>8</v>
       </c>
-      <c r="D137">
+      <c r="D137" s="1">
         <v>4374.88</v>
       </c>
     </row>
@@ -32002,7 +32021,7 @@
       <c r="C138" t="s">
         <v>8</v>
       </c>
-      <c r="D138">
+      <c r="D138" s="1">
         <v>193.936</v>
       </c>
     </row>
@@ -32016,7 +32035,7 @@
       <c r="C139" t="s">
         <v>8</v>
       </c>
-      <c r="D139">
+      <c r="D139" s="1">
         <v>63.381</v>
       </c>
     </row>
@@ -32030,7 +32049,7 @@
       <c r="C140" t="s">
         <v>5</v>
       </c>
-      <c r="D140">
+      <c r="D140" s="1">
         <v>426.942</v>
       </c>
     </row>
@@ -32044,7 +32063,7 @@
       <c r="C141" t="s">
         <v>840</v>
       </c>
-      <c r="D141">
+      <c r="D141" s="1">
         <v>709.0425</v>
       </c>
     </row>
@@ -32058,7 +32077,7 @@
       <c r="C142" t="s">
         <v>6</v>
       </c>
-      <c r="D142">
+      <c r="D142" s="1">
         <v>255.968</v>
       </c>
     </row>
@@ -32072,7 +32091,7 @@
       <c r="C143" t="s">
         <v>8</v>
       </c>
-      <c r="D143">
+      <c r="D143" s="1">
         <v>47.952</v>
       </c>
     </row>
@@ -32086,7 +32105,7 @@
       <c r="C144" t="s">
         <v>8</v>
       </c>
-      <c r="D144">
+      <c r="D144" s="1">
         <v>175.32</v>
       </c>
     </row>
@@ -32100,7 +32119,7 @@
       <c r="C145" t="s">
         <v>8</v>
       </c>
-      <c r="D145">
+      <c r="D145" s="1">
         <v>763.508</v>
       </c>
     </row>
@@ -32114,7 +32133,7 @@
       <c r="C146" t="s">
         <v>8</v>
       </c>
-      <c r="D146">
+      <c r="D146" s="1">
         <v>3747.93</v>
       </c>
     </row>
@@ -32128,7 +32147,7 @@
       <c r="C147" t="s">
         <v>8</v>
       </c>
-      <c r="D147">
+      <c r="D147" s="1">
         <v>1918.79</v>
       </c>
     </row>
@@ -32142,7 +32161,7 @@
       <c r="C148" t="s">
         <v>5</v>
       </c>
-      <c r="D148">
+      <c r="D148" s="1">
         <v>106.5</v>
       </c>
     </row>
@@ -32156,7 +32175,7 @@
       <c r="C149" t="s">
         <v>5</v>
       </c>
-      <c r="D149">
+      <c r="D149" s="1">
         <v>18.176</v>
       </c>
     </row>
@@ -32170,7 +32189,7 @@
       <c r="C150" t="s">
         <v>8</v>
       </c>
-      <c r="D150">
+      <c r="D150" s="1">
         <v>74.52</v>
       </c>
     </row>
@@ -32184,7 +32203,7 @@
       <c r="C151" t="s">
         <v>8</v>
       </c>
-      <c r="D151">
+      <c r="D151" s="1">
         <v>525.95</v>
       </c>
     </row>
@@ -32198,7 +32217,7 @@
       <c r="C152" t="s">
         <v>8</v>
       </c>
-      <c r="D152">
+      <c r="D152" s="1">
         <v>260.31</v>
       </c>
     </row>
@@ -32212,7 +32231,7 @@
       <c r="C153" t="s">
         <v>8</v>
       </c>
-      <c r="D153">
+      <c r="D153" s="1">
         <v>74.352</v>
       </c>
     </row>
@@ -32226,7 +32245,7 @@
       <c r="C154" t="s">
         <v>8</v>
       </c>
-      <c r="D154">
+      <c r="D154" s="1">
         <v>284.44</v>
       </c>
     </row>
@@ -32240,7 +32259,7 @@
       <c r="C155" t="s">
         <v>5</v>
       </c>
-      <c r="D155">
+      <c r="D155" s="1">
         <v>176.63</v>
       </c>
     </row>
@@ -32254,7 +32273,7 @@
       <c r="C156" t="s">
         <v>8</v>
       </c>
-      <c r="D156">
+      <c r="D156" s="1">
         <v>55.984</v>
       </c>
     </row>
@@ -32268,7 +32287,7 @@
       <c r="C157" t="s">
         <v>8</v>
       </c>
-      <c r="D157">
+      <c r="D157" s="1">
         <v>192.22</v>
       </c>
     </row>
@@ -32282,7 +32301,7 @@
       <c r="C158" t="s">
         <v>8</v>
       </c>
-      <c r="D158">
+      <c r="D158" s="1">
         <v>976.29</v>
       </c>
     </row>
@@ -32296,7 +32315,7 @@
       <c r="C159" t="s">
         <v>8</v>
       </c>
-      <c r="D159">
+      <c r="D159" s="1">
         <v>1361.631</v>
       </c>
     </row>
@@ -32310,7 +32329,7 @@
       <c r="C160" t="s">
         <v>8</v>
       </c>
-      <c r="D160">
+      <c r="D160" s="1">
         <v>268.4</v>
       </c>
     </row>
@@ -32324,7 +32343,7 @@
       <c r="C161" t="s">
         <v>8</v>
       </c>
-      <c r="D161">
+      <c r="D161" s="1">
         <v>893.09</v>
       </c>
     </row>
@@ -32338,7 +32357,7 @@
       <c r="C162" t="s">
         <v>8</v>
       </c>
-      <c r="D162">
+      <c r="D162" s="1">
         <v>301.96</v>
       </c>
     </row>
@@ -32352,7 +32371,7 @@
       <c r="C163" t="s">
         <v>8</v>
       </c>
-      <c r="D163">
+      <c r="D163" s="1">
         <v>81.135</v>
       </c>
     </row>
@@ -32366,7 +32385,7 @@
       <c r="C164" t="s">
         <v>840</v>
       </c>
-      <c r="D164">
+      <c r="D164" s="1">
         <v>750.93</v>
       </c>
     </row>
@@ -32380,7 +32399,7 @@
       <c r="C165" t="s">
         <v>840</v>
       </c>
-      <c r="D165">
+      <c r="D165" s="1">
         <v>596.48</v>
       </c>
     </row>
@@ -32394,7 +32413,7 @@
       <c r="C166" t="s">
         <v>840</v>
       </c>
-      <c r="D166">
+      <c r="D166" s="1">
         <v>467.04</v>
       </c>
     </row>
@@ -32408,7 +32427,7 @@
       <c r="C167" t="s">
         <v>8</v>
       </c>
-      <c r="D167">
+      <c r="D167" s="1">
         <v>8.226</v>
       </c>
     </row>
@@ -32422,7 +32441,7 @@
       <c r="C168" t="s">
         <v>840</v>
       </c>
-      <c r="D168">
+      <c r="D168" s="1">
         <v>4.608</v>
       </c>
     </row>
@@ -32436,7 +32455,7 @@
       <c r="C169" t="s">
         <v>8</v>
       </c>
-      <c r="D169">
+      <c r="D169" s="1">
         <v>113.1</v>
       </c>
     </row>
@@ -32450,7 +32469,7 @@
       <c r="C170" t="s">
         <v>8</v>
       </c>
-      <c r="D170">
+      <c r="D170" s="1">
         <v>115.296</v>
       </c>
     </row>
@@ -32464,7 +32483,7 @@
       <c r="C171" t="s">
         <v>8</v>
       </c>
-      <c r="D171">
+      <c r="D171" s="1">
         <v>27.504</v>
       </c>
     </row>
@@ -32478,7 +32497,7 @@
       <c r="C172" t="s">
         <v>8</v>
       </c>
-      <c r="D172">
+      <c r="D172" s="1">
         <v>78.192</v>
       </c>
     </row>
@@ -32492,7 +32511,7 @@
       <c r="C173" t="s">
         <v>8</v>
       </c>
-      <c r="D173">
+      <c r="D173" s="1">
         <v>792.508</v>
       </c>
     </row>
@@ -32506,7 +32525,7 @@
       <c r="C174" t="s">
         <v>8</v>
       </c>
-      <c r="D174">
+      <c r="D174" s="1">
         <v>371.66</v>
       </c>
     </row>
@@ -32520,7 +32539,7 @@
       <c r="C175" t="s">
         <v>8</v>
       </c>
-      <c r="D175">
+      <c r="D175" s="1">
         <v>84.96</v>
       </c>
     </row>
@@ -32534,7 +32553,7 @@
       <c r="C176" t="s">
         <v>8</v>
       </c>
-      <c r="D176">
+      <c r="D176" s="1">
         <v>75.04</v>
       </c>
     </row>
@@ -32548,7 +32567,7 @@
       <c r="C177" t="s">
         <v>840</v>
       </c>
-      <c r="D177">
+      <c r="D177" s="1">
         <v>61.96</v>
       </c>
     </row>
@@ -32562,7 +32581,7 @@
       <c r="C178" t="s">
         <v>8</v>
       </c>
-      <c r="D178">
+      <c r="D178" s="1">
         <v>535.36</v>
       </c>
     </row>
@@ -32576,7 +32595,7 @@
       <c r="C179" t="s">
         <v>840</v>
       </c>
-      <c r="D179">
+      <c r="D179" s="1">
         <v>4297.644</v>
       </c>
     </row>
@@ -32590,7 +32609,7 @@
       <c r="C180" t="s">
         <v>840</v>
       </c>
-      <c r="D180">
+      <c r="D180" s="1">
         <v>12.158</v>
       </c>
     </row>
@@ -32604,7 +32623,7 @@
       <c r="C181" t="s">
         <v>5</v>
       </c>
-      <c r="D181">
+      <c r="D181" s="1">
         <v>194.32</v>
       </c>
     </row>
@@ -32618,7 +32637,7 @@
       <c r="C182" t="s">
         <v>6</v>
       </c>
-      <c r="D182">
+      <c r="D182" s="1">
         <v>598.352</v>
       </c>
     </row>
@@ -32632,7 +32651,7 @@
       <c r="C183" t="s">
         <v>8</v>
       </c>
-      <c r="D183">
+      <c r="D183" s="1">
         <v>387.136</v>
       </c>
     </row>
@@ -32646,7 +32665,7 @@
       <c r="C184" t="s">
         <v>8</v>
       </c>
-      <c r="D184">
+      <c r="D184" s="1">
         <v>199.86</v>
       </c>
     </row>
@@ -32660,7 +32679,7 @@
       <c r="C185" t="s">
         <v>8</v>
       </c>
-      <c r="D185">
+      <c r="D185" s="1">
         <v>364.07</v>
       </c>
     </row>
@@ -32674,7 +32693,7 @@
       <c r="C186" t="s">
         <v>840</v>
       </c>
-      <c r="D186">
+      <c r="D186" s="1">
         <v>3.76</v>
       </c>
     </row>
@@ -32688,7 +32707,7 @@
       <c r="C187" t="s">
         <v>8</v>
       </c>
-      <c r="D187">
+      <c r="D187" s="1">
         <v>46.152</v>
       </c>
     </row>
@@ -32702,7 +32721,7 @@
       <c r="C188" t="s">
         <v>8</v>
       </c>
-      <c r="D188">
+      <c r="D188" s="1">
         <v>5.64</v>
       </c>
     </row>
@@ -32716,7 +32735,7 @@
       <c r="C189" t="s">
         <v>8</v>
       </c>
-      <c r="D189">
+      <c r="D189" s="1">
         <v>1270.379</v>
       </c>
     </row>
@@ -32730,7 +32749,7 @@
       <c r="C190" t="s">
         <v>8</v>
       </c>
-      <c r="D190">
+      <c r="D190" s="1">
         <v>22.549</v>
       </c>
     </row>
@@ -32744,7 +32763,7 @@
       <c r="C191" t="s">
         <v>8</v>
       </c>
-      <c r="D191">
+      <c r="D191" s="1">
         <v>19.56</v>
       </c>
     </row>
@@ -32758,7 +32777,7 @@
       <c r="C192" t="s">
         <v>5</v>
       </c>
-      <c r="D192">
+      <c r="D192" s="1">
         <v>3165.744</v>
       </c>
     </row>
@@ -32772,7 +32791,7 @@
       <c r="C193" t="s">
         <v>8</v>
       </c>
-      <c r="D193">
+      <c r="D193" s="1">
         <v>53.28</v>
       </c>
     </row>
@@ -32786,7 +32805,7 @@
       <c r="C194" t="s">
         <v>8</v>
       </c>
-      <c r="D194">
+      <c r="D194" s="1">
         <v>194.1395</v>
       </c>
     </row>
@@ -32800,7 +32819,7 @@
       <c r="C195" t="s">
         <v>8</v>
       </c>
-      <c r="D195">
+      <c r="D195" s="1">
         <v>288.85</v>
       </c>
     </row>
@@ -32814,7 +32833,7 @@
       <c r="C196" t="s">
         <v>8</v>
       </c>
-      <c r="D196">
+      <c r="D196" s="1">
         <v>107.976</v>
       </c>
     </row>
@@ -32828,7 +32847,7 @@
       <c r="C197" t="s">
         <v>8</v>
       </c>
-      <c r="D197">
+      <c r="D197" s="1">
         <v>62.46</v>
       </c>
     </row>
@@ -32842,7 +32861,7 @@
       <c r="C198" t="s">
         <v>8</v>
       </c>
-      <c r="D198">
+      <c r="D198" s="1">
         <v>121.888</v>
       </c>
     </row>
@@ -32856,7 +32875,7 @@
       <c r="C199" t="s">
         <v>8</v>
       </c>
-      <c r="D199">
+      <c r="D199" s="1">
         <v>7.38</v>
       </c>
     </row>
@@ -32870,7 +32889,7 @@
       <c r="C200" t="s">
         <v>8</v>
       </c>
-      <c r="D200">
+      <c r="D200" s="1">
         <v>2026.78</v>
       </c>
     </row>
@@ -32884,7 +32903,7 @@
       <c r="C201" t="s">
         <v>840</v>
       </c>
-      <c r="D201">
+      <c r="D201" s="1">
         <v>269.49</v>
       </c>
     </row>
@@ -32898,7 +32917,7 @@
       <c r="C202" t="s">
         <v>8</v>
       </c>
-      <c r="D202">
+      <c r="D202" s="1">
         <v>45.976</v>
       </c>
     </row>
@@ -32912,7 +32931,7 @@
       <c r="C203" t="s">
         <v>8</v>
       </c>
-      <c r="D203">
+      <c r="D203" s="1">
         <v>365.91</v>
       </c>
     </row>
@@ -32926,7 +32945,7 @@
       <c r="C204" t="s">
         <v>8</v>
       </c>
-      <c r="D204">
+      <c r="D204" s="1">
         <v>13.12</v>
       </c>
     </row>
@@ -32940,7 +32959,7 @@
       <c r="C205" t="s">
         <v>8</v>
       </c>
-      <c r="D205">
+      <c r="D205" s="1">
         <v>30.84</v>
       </c>
     </row>
@@ -32954,7 +32973,7 @@
       <c r="C206" t="s">
         <v>5</v>
       </c>
-      <c r="D206">
+      <c r="D206" s="1">
         <v>59.48</v>
       </c>
     </row>
@@ -32968,7 +32987,7 @@
       <c r="C207" t="s">
         <v>8</v>
       </c>
-      <c r="D207">
+      <c r="D207" s="1">
         <v>207</v>
       </c>
     </row>
@@ -32982,7 +33001,7 @@
       <c r="C208" t="s">
         <v>5</v>
       </c>
-      <c r="D208">
+      <c r="D208" s="1">
         <v>182.91</v>
       </c>
     </row>
@@ -32996,7 +33015,7 @@
       <c r="C209" t="s">
         <v>8</v>
       </c>
-      <c r="D209">
+      <c r="D209" s="1">
         <v>1046.47</v>
       </c>
     </row>
@@ -33010,7 +33029,7 @@
       <c r="C210" t="s">
         <v>5</v>
       </c>
-      <c r="D210">
+      <c r="D210" s="1">
         <v>64.68</v>
       </c>
     </row>
@@ -33024,7 +33043,7 @@
       <c r="C211" t="s">
         <v>840</v>
       </c>
-      <c r="D211">
+      <c r="D211" s="1">
         <v>3.444</v>
       </c>
     </row>
@@ -33038,7 +33057,7 @@
       <c r="C212" t="s">
         <v>840</v>
       </c>
-      <c r="D212">
+      <c r="D212" s="1">
         <v>498.93</v>
       </c>
     </row>
@@ -33052,7 +33071,7 @@
       <c r="C213" t="s">
         <v>8</v>
       </c>
-      <c r="D213">
+      <c r="D213" s="1">
         <v>1801.632</v>
       </c>
     </row>
@@ -33066,7 +33085,7 @@
       <c r="C214" t="s">
         <v>8</v>
       </c>
-      <c r="D214">
+      <c r="D214" s="1">
         <v>105.42</v>
       </c>
     </row>
@@ -33080,7 +33099,7 @@
       <c r="C215" t="s">
         <v>8</v>
       </c>
-      <c r="D215">
+      <c r="D215" s="1">
         <v>436.86</v>
       </c>
     </row>
@@ -33094,7 +33113,7 @@
       <c r="C216" t="s">
         <v>840</v>
       </c>
-      <c r="D216">
+      <c r="D216" s="1">
         <v>80.38</v>
       </c>
     </row>
@@ -33108,7 +33127,7 @@
       <c r="C217" t="s">
         <v>8</v>
       </c>
-      <c r="D217">
+      <c r="D217" s="1">
         <v>67.96</v>
       </c>
     </row>
@@ -33122,7 +33141,7 @@
       <c r="C218" t="s">
         <v>8</v>
       </c>
-      <c r="D218">
+      <c r="D218" s="1">
         <v>233.064</v>
       </c>
     </row>
@@ -33136,7 +33155,7 @@
       <c r="C219" t="s">
         <v>6</v>
       </c>
-      <c r="D219">
+      <c r="D219" s="1">
         <v>10.272</v>
       </c>
     </row>
@@ -33150,7 +33169,7 @@
       <c r="C220" t="s">
         <v>8</v>
       </c>
-      <c r="D220">
+      <c r="D220" s="1">
         <v>79.96</v>
       </c>
     </row>
@@ -33164,7 +33183,7 @@
       <c r="C221" t="s">
         <v>8</v>
       </c>
-      <c r="D221">
+      <c r="D221" s="1">
         <v>6.48</v>
       </c>
     </row>
@@ -33178,7 +33197,7 @@
       <c r="C222" t="s">
         <v>5</v>
       </c>
-      <c r="D222">
+      <c r="D222" s="1">
         <v>2298.9</v>
       </c>
     </row>
@@ -33192,7 +33211,7 @@
       <c r="C223" t="s">
         <v>8</v>
       </c>
-      <c r="D223">
+      <c r="D223" s="1">
         <v>13.092</v>
       </c>
     </row>
@@ -33206,7 +33225,7 @@
       <c r="C224" t="s">
         <v>5</v>
       </c>
-      <c r="D224">
+      <c r="D224" s="1">
         <v>197.72</v>
       </c>
     </row>
@@ -33220,7 +33239,7 @@
       <c r="C225" t="s">
         <v>5</v>
       </c>
-      <c r="D225">
+      <c r="D225" s="1">
         <v>246.364</v>
       </c>
     </row>
@@ -33234,7 +33253,7 @@
       <c r="C226" t="s">
         <v>840</v>
       </c>
-      <c r="D226">
+      <c r="D226" s="1">
         <v>89.36</v>
       </c>
     </row>
@@ -33248,7 +33267,7 @@
       <c r="C227" t="s">
         <v>8</v>
       </c>
-      <c r="D227">
+      <c r="D227" s="1">
         <v>87.168</v>
       </c>
     </row>
@@ -33262,7 +33281,7 @@
       <c r="C228" t="s">
         <v>5</v>
       </c>
-      <c r="D228">
+      <c r="D228" s="1">
         <v>440.144</v>
       </c>
     </row>
@@ -33276,7 +33295,7 @@
       <c r="C229" t="s">
         <v>8</v>
       </c>
-      <c r="D229">
+      <c r="D229" s="1">
         <v>1664.132</v>
       </c>
     </row>
@@ -33290,7 +33309,7 @@
       <c r="C230" t="s">
         <v>8</v>
       </c>
-      <c r="D230">
+      <c r="D230" s="1">
         <v>11.696</v>
       </c>
     </row>
@@ -33304,7 +33323,7 @@
       <c r="C231" t="s">
         <v>840</v>
       </c>
-      <c r="D231">
+      <c r="D231" s="1">
         <v>717.12</v>
       </c>
     </row>
@@ -33318,7 +33337,7 @@
       <c r="C232" t="s">
         <v>8</v>
       </c>
-      <c r="D232">
+      <c r="D232" s="1">
         <v>919.49</v>
       </c>
     </row>
@@ -33332,7 +33351,7 @@
       <c r="C233" t="s">
         <v>8</v>
       </c>
-      <c r="D233">
+      <c r="D233" s="1">
         <v>517.5</v>
       </c>
     </row>
@@ -33346,7 +33365,7 @@
       <c r="C234" t="s">
         <v>8</v>
       </c>
-      <c r="D234">
+      <c r="D234" s="1">
         <v>14.496</v>
       </c>
     </row>
@@ -33360,7 +33379,7 @@
       <c r="C235" t="s">
         <v>8</v>
       </c>
-      <c r="D235">
+      <c r="D235" s="1">
         <v>19.584</v>
       </c>
     </row>
@@ -33374,7 +33393,7 @@
       <c r="C236" t="s">
         <v>8</v>
       </c>
-      <c r="D236">
+      <c r="D236" s="1">
         <v>39.96</v>
       </c>
     </row>
@@ -33388,7 +33407,7 @@
       <c r="C237" t="s">
         <v>8</v>
       </c>
-      <c r="D237">
+      <c r="D237" s="1">
         <v>6412.77</v>
       </c>
     </row>
@@ -33402,7 +33421,7 @@
       <c r="C238" t="s">
         <v>8</v>
       </c>
-      <c r="D238">
+      <c r="D238" s="1">
         <v>13.632</v>
       </c>
     </row>
@@ -33416,7 +33435,7 @@
       <c r="C239" t="s">
         <v>8</v>
       </c>
-      <c r="D239">
+      <c r="D239" s="1">
         <v>66.36</v>
       </c>
     </row>
@@ -33430,7 +33449,7 @@
       <c r="C240" t="s">
         <v>8</v>
       </c>
-      <c r="D240">
+      <c r="D240" s="1">
         <v>324.11</v>
       </c>
     </row>
@@ -33444,7 +33463,7 @@
       <c r="C241" t="s">
         <v>8</v>
       </c>
-      <c r="D241">
+      <c r="D241" s="1">
         <v>45.68</v>
       </c>
     </row>
@@ -33458,7 +33477,7 @@
       <c r="C242" t="s">
         <v>8</v>
       </c>
-      <c r="D242">
+      <c r="D242" s="1">
         <v>5.04</v>
       </c>
     </row>
@@ -33472,7 +33491,7 @@
       <c r="C243" t="s">
         <v>5</v>
       </c>
-      <c r="D243">
+      <c r="D243" s="1">
         <v>32.985</v>
       </c>
     </row>
@@ -33486,7 +33505,7 @@
       <c r="C244" t="s">
         <v>8</v>
       </c>
-      <c r="D244">
+      <c r="D244" s="1">
         <v>896.31</v>
       </c>
     </row>
@@ -33500,7 +33519,7 @@
       <c r="C245" t="s">
         <v>8</v>
       </c>
-      <c r="D245">
+      <c r="D245" s="1">
         <v>200.984</v>
       </c>
     </row>
@@ -33514,7 +33533,7 @@
       <c r="C246" t="s">
         <v>8</v>
       </c>
-      <c r="D246">
+      <c r="D246" s="1">
         <v>246.168</v>
       </c>
     </row>
@@ -33528,7 +33547,7 @@
       <c r="C247" t="s">
         <v>5</v>
       </c>
-      <c r="D247">
+      <c r="D247" s="1">
         <v>196.62</v>
       </c>
     </row>
@@ -33542,7 +33561,7 @@
       <c r="C248" t="s">
         <v>840</v>
       </c>
-      <c r="D248">
+      <c r="D248" s="1">
         <v>5.56</v>
       </c>
     </row>
@@ -33556,7 +33575,7 @@
       <c r="C249" t="s">
         <v>8</v>
       </c>
-      <c r="D249">
+      <c r="D249" s="1">
         <v>88.96</v>
       </c>
     </row>
@@ -33570,7 +33589,7 @@
       <c r="C250" t="s">
         <v>8</v>
       </c>
-      <c r="D250">
+      <c r="D250" s="1">
         <v>21.36</v>
       </c>
     </row>
@@ -33584,7 +33603,7 @@
       <c r="C251" t="s">
         <v>8</v>
       </c>
-      <c r="D251">
+      <c r="D251" s="1">
         <v>94.688</v>
       </c>
     </row>
@@ -33598,7 +33617,7 @@
       <c r="C252" t="s">
         <v>840</v>
       </c>
-      <c r="D252">
+      <c r="D252" s="1">
         <v>58.72</v>
       </c>
     </row>
@@ -33612,7 +33631,7 @@
       <c r="C253" t="s">
         <v>8</v>
       </c>
-      <c r="D253">
+      <c r="D253" s="1">
         <v>169.544</v>
       </c>
     </row>
@@ -33626,7 +33645,7 @@
       <c r="C254" t="s">
         <v>840</v>
       </c>
-      <c r="D254">
+      <c r="D254" s="1">
         <v>1166.92</v>
       </c>
     </row>
@@ -33640,7 +33659,7 @@
       <c r="C255" t="s">
         <v>8</v>
       </c>
-      <c r="D255">
+      <c r="D255" s="1">
         <v>5.16</v>
       </c>
     </row>
@@ -33654,7 +33673,7 @@
       <c r="C256" t="s">
         <v>840</v>
       </c>
-      <c r="D256">
+      <c r="D256" s="1">
         <v>173.94</v>
       </c>
     </row>
@@ -33668,7 +33687,7 @@
       <c r="C257" t="s">
         <v>8</v>
       </c>
-      <c r="D257">
+      <c r="D257" s="1">
         <v>457.04</v>
       </c>
     </row>
@@ -33682,7 +33701,7 @@
       <c r="C258" t="s">
         <v>5</v>
       </c>
-      <c r="D258">
+      <c r="D258" s="1">
         <v>860.07</v>
       </c>
     </row>
@@ -33696,7 +33715,7 @@
       <c r="C259" t="s">
         <v>8</v>
       </c>
-      <c r="D259">
+      <c r="D259" s="1">
         <v>186.69</v>
       </c>
     </row>
@@ -33710,7 +33729,7 @@
       <c r="C260" t="s">
         <v>6</v>
       </c>
-      <c r="D260">
+      <c r="D260" s="1">
         <v>78.456</v>
       </c>
     </row>
@@ -33724,7 +33743,7 @@
       <c r="C261" t="s">
         <v>8</v>
       </c>
-      <c r="D261">
+      <c r="D261" s="1">
         <v>4.608</v>
       </c>
     </row>
@@ -33738,7 +33757,7 @@
       <c r="C262" t="s">
         <v>840</v>
       </c>
-      <c r="D262">
+      <c r="D262" s="1">
         <v>1635.018</v>
       </c>
     </row>
@@ -33752,7 +33771,7 @@
       <c r="C263" t="s">
         <v>8</v>
       </c>
-      <c r="D263">
+      <c r="D263" s="1">
         <v>48.81</v>
       </c>
     </row>
@@ -33766,7 +33785,7 @@
       <c r="C264" t="s">
         <v>8</v>
       </c>
-      <c r="D264">
+      <c r="D264" s="1">
         <v>177.48</v>
       </c>
     </row>
@@ -33780,7 +33799,7 @@
       <c r="C265" t="s">
         <v>5</v>
       </c>
-      <c r="D265">
+      <c r="D265" s="1">
         <v>670.001</v>
       </c>
     </row>
@@ -33794,7 +33813,7 @@
       <c r="C266" t="s">
         <v>8</v>
       </c>
-      <c r="D266">
+      <c r="D266" s="1">
         <v>36.27</v>
       </c>
     </row>
@@ -33808,7 +33827,7 @@
       <c r="C267" t="s">
         <v>5</v>
       </c>
-      <c r="D267">
+      <c r="D267" s="1">
         <v>17.088</v>
       </c>
     </row>
@@ -33822,7 +33841,7 @@
       <c r="C268" t="s">
         <v>8</v>
       </c>
-      <c r="D268">
+      <c r="D268" s="1">
         <v>3631.96</v>
       </c>
     </row>
@@ -33836,7 +33855,7 @@
       <c r="C269" t="s">
         <v>8</v>
       </c>
-      <c r="D269">
+      <c r="D269" s="1">
         <v>6.24</v>
       </c>
     </row>
@@ -33850,7 +33869,7 @@
       <c r="C270" t="s">
         <v>8</v>
       </c>
-      <c r="D270">
+      <c r="D270" s="1">
         <v>7.24</v>
       </c>
     </row>
@@ -33864,7 +33883,7 @@
       <c r="C271" t="s">
         <v>840</v>
       </c>
-      <c r="D271">
+      <c r="D271" s="1">
         <v>140.736</v>
       </c>
     </row>
@@ -33878,7 +33897,7 @@
       <c r="C272" t="s">
         <v>8</v>
       </c>
-      <c r="D272">
+      <c r="D272" s="1">
         <v>277.632</v>
       </c>
     </row>
@@ -33892,7 +33911,7 @@
       <c r="C273" t="s">
         <v>8</v>
       </c>
-      <c r="D273">
+      <c r="D273" s="1">
         <v>937.608</v>
       </c>
     </row>
@@ -33906,7 +33925,7 @@
       <c r="C274" t="s">
         <v>8</v>
       </c>
-      <c r="D274">
+      <c r="D274" s="1">
         <v>104.51</v>
       </c>
     </row>
@@ -33920,7 +33939,7 @@
       <c r="C275" t="s">
         <v>8</v>
       </c>
-      <c r="D275">
+      <c r="D275" s="1">
         <v>50.462</v>
       </c>
     </row>
@@ -33934,7 +33953,7 @@
       <c r="C276" t="s">
         <v>840</v>
       </c>
-      <c r="D276">
+      <c r="D276" s="1">
         <v>520.03</v>
       </c>
     </row>
@@ -33948,7 +33967,7 @@
       <c r="C277" t="s">
         <v>8</v>
       </c>
-      <c r="D277">
+      <c r="D277" s="1">
         <v>151.96</v>
       </c>
     </row>
@@ -33962,7 +33981,7 @@
       <c r="C278" t="s">
         <v>8</v>
       </c>
-      <c r="D278">
+      <c r="D278" s="1">
         <v>377.902</v>
       </c>
     </row>
@@ -33976,7 +33995,7 @@
       <c r="C279" t="s">
         <v>8</v>
       </c>
-      <c r="D279">
+      <c r="D279" s="1">
         <v>239.7</v>
       </c>
     </row>
@@ -33990,7 +34009,7 @@
       <c r="C280" t="s">
         <v>5</v>
       </c>
-      <c r="D280">
+      <c r="D280" s="1">
         <v>47.976</v>
       </c>
     </row>
@@ -34004,7 +34023,7 @@
       <c r="C281" t="s">
         <v>8</v>
       </c>
-      <c r="D281">
+      <c r="D281" s="1">
         <v>1142.43</v>
       </c>
     </row>
@@ -34018,7 +34037,7 @@
       <c r="C282" t="s">
         <v>840</v>
       </c>
-      <c r="D282">
+      <c r="D282" s="1">
         <v>17.94</v>
       </c>
     </row>
@@ -34032,7 +34051,7 @@
       <c r="C283" t="s">
         <v>8</v>
       </c>
-      <c r="D283">
+      <c r="D283" s="1">
         <v>692.472</v>
       </c>
     </row>
@@ -34046,7 +34065,7 @@
       <c r="C284" t="s">
         <v>8</v>
       </c>
-      <c r="D284">
+      <c r="D284" s="1">
         <v>31.12</v>
       </c>
     </row>
@@ -34060,7 +34079,7 @@
       <c r="C285" t="s">
         <v>840</v>
       </c>
-      <c r="D285">
+      <c r="D285" s="1">
         <v>392.94</v>
       </c>
     </row>
@@ -34074,7 +34093,7 @@
       <c r="C286" t="s">
         <v>8</v>
       </c>
-      <c r="D286">
+      <c r="D286" s="1">
         <v>58.05</v>
       </c>
     </row>
@@ -34088,7 +34107,7 @@
       <c r="C287" t="s">
         <v>8</v>
       </c>
-      <c r="D287">
+      <c r="D287" s="1">
         <v>46.62</v>
       </c>
     </row>
@@ -34102,7 +34121,7 @@
       <c r="C288" t="s">
         <v>840</v>
       </c>
-      <c r="D288">
+      <c r="D288" s="1">
         <v>9.82</v>
       </c>
     </row>
@@ -34116,7 +34135,7 @@
       <c r="C289" t="s">
         <v>840</v>
       </c>
-      <c r="D289">
+      <c r="D289" s="1">
         <v>9.952</v>
       </c>
     </row>
@@ -34130,7 +34149,7 @@
       <c r="C290" t="s">
         <v>8</v>
       </c>
-      <c r="D290">
+      <c r="D290" s="1">
         <v>29.99</v>
       </c>
     </row>
@@ -34144,7 +34163,7 @@
       <c r="C291" t="s">
         <v>8</v>
       </c>
-      <c r="D291">
+      <c r="D291" s="1">
         <v>19.44</v>
       </c>
     </row>
@@ -34158,7 +34177,7 @@
       <c r="C292" t="s">
         <v>6</v>
       </c>
-      <c r="D292">
+      <c r="D292" s="1">
         <v>29</v>
       </c>
     </row>
@@ -34172,7 +34191,7 @@
       <c r="C293" t="s">
         <v>8</v>
       </c>
-      <c r="D293">
+      <c r="D293" s="1">
         <v>7.7</v>
       </c>
     </row>
@@ -34186,7 +34205,7 @@
       <c r="C294" t="s">
         <v>840</v>
       </c>
-      <c r="D294">
+      <c r="D294" s="1">
         <v>140.52</v>
       </c>
     </row>
@@ -34200,7 +34219,7 @@
       <c r="C295" t="s">
         <v>5</v>
       </c>
-      <c r="D295">
+      <c r="D295" s="1">
         <v>1056.86</v>
       </c>
     </row>
@@ -34214,7 +34233,7 @@
       <c r="C296" t="s">
         <v>8</v>
       </c>
-      <c r="D296">
+      <c r="D296" s="1">
         <v>1611.01</v>
       </c>
     </row>
@@ -34228,7 +34247,7 @@
       <c r="C297" t="s">
         <v>5</v>
       </c>
-      <c r="D297">
+      <c r="D297" s="1">
         <v>73.2</v>
       </c>
     </row>
@@ -34242,7 +34261,7 @@
       <c r="C298" t="s">
         <v>8</v>
       </c>
-      <c r="D298">
+      <c r="D298" s="1">
         <v>2503.47</v>
       </c>
     </row>
@@ -34256,7 +34275,7 @@
       <c r="C299" t="s">
         <v>8</v>
       </c>
-      <c r="D299">
+      <c r="D299" s="1">
         <v>447.783</v>
       </c>
     </row>
@@ -34270,7 +34289,7 @@
       <c r="C300" t="s">
         <v>6</v>
       </c>
-      <c r="D300">
+      <c r="D300" s="1">
         <v>1363.96</v>
       </c>
     </row>
@@ -34284,7 +34303,7 @@
       <c r="C301" t="s">
         <v>8</v>
       </c>
-      <c r="D301">
+      <c r="D301" s="1">
         <v>270.728</v>
       </c>
     </row>
@@ -34298,7 +34317,7 @@
       <c r="C302" t="s">
         <v>8</v>
       </c>
-      <c r="D302">
+      <c r="D302" s="1">
         <v>61.1</v>
       </c>
     </row>
@@ -34312,7 +34331,7 @@
       <c r="C303" t="s">
         <v>8</v>
       </c>
-      <c r="D303">
+      <c r="D303" s="1">
         <v>316</v>
       </c>
     </row>
@@ -34326,7 +34345,7 @@
       <c r="C304" t="s">
         <v>6</v>
       </c>
-      <c r="D304">
+      <c r="D304" s="1">
         <v>107.83</v>
       </c>
     </row>
@@ -34340,7 +34359,7 @@
       <c r="C305" t="s">
         <v>8</v>
       </c>
-      <c r="D305">
+      <c r="D305" s="1">
         <v>1854.241</v>
       </c>
     </row>
@@ -34354,7 +34373,7 @@
       <c r="C306" t="s">
         <v>8</v>
       </c>
-      <c r="D306">
+      <c r="D306" s="1">
         <v>323.88</v>
       </c>
     </row>
@@ -34368,7 +34387,7 @@
       <c r="C307" t="s">
         <v>8</v>
       </c>
-      <c r="D307">
+      <c r="D307" s="1">
         <v>2.694</v>
       </c>
     </row>
@@ -34382,7 +34401,7 @@
       <c r="C308" t="s">
         <v>8</v>
       </c>
-      <c r="D308">
+      <c r="D308" s="1">
         <v>298.83</v>
       </c>
     </row>
@@ -34396,7 +34415,7 @@
       <c r="C309" t="s">
         <v>840</v>
       </c>
-      <c r="D309">
+      <c r="D309" s="1">
         <v>1127.976</v>
       </c>
     </row>
@@ -34410,7 +34429,7 @@
       <c r="C310" t="s">
         <v>840</v>
       </c>
-      <c r="D310">
+      <c r="D310" s="1">
         <v>31.36</v>
       </c>
     </row>
@@ -34424,7 +34443,7 @@
       <c r="C311" t="s">
         <v>840</v>
       </c>
-      <c r="D311">
+      <c r="D311" s="1">
         <v>1284.8</v>
       </c>
     </row>
@@ -34438,7 +34457,7 @@
       <c r="C312" t="s">
         <v>8</v>
       </c>
-      <c r="D312">
+      <c r="D312" s="1">
         <v>104.712</v>
       </c>
     </row>
@@ -34452,7 +34471,7 @@
       <c r="C313" t="s">
         <v>8</v>
       </c>
-      <c r="D313">
+      <c r="D313" s="1">
         <v>10.96</v>
       </c>
     </row>
@@ -34466,7 +34485,7 @@
       <c r="C314" t="s">
         <v>8</v>
       </c>
-      <c r="D314">
+      <c r="D314" s="1">
         <v>158.81</v>
       </c>
     </row>
@@ -34480,7 +34499,7 @@
       <c r="C315" t="s">
         <v>5</v>
       </c>
-      <c r="D315">
+      <c r="D315" s="1">
         <v>1366.04</v>
       </c>
     </row>
@@ -34494,7 +34513,7 @@
       <c r="C316" t="s">
         <v>8</v>
       </c>
-      <c r="D316">
+      <c r="D316" s="1">
         <v>3</v>
       </c>
     </row>
@@ -34508,7 +34527,7 @@
       <c r="C317" t="s">
         <v>8</v>
       </c>
-      <c r="D317">
+      <c r="D317" s="1">
         <v>2.61</v>
       </c>
     </row>
@@ -34522,7 +34541,7 @@
       <c r="C318" t="s">
         <v>8</v>
       </c>
-      <c r="D318">
+      <c r="D318" s="1">
         <v>448.81</v>
       </c>
     </row>
@@ -34536,7 +34555,7 @@
       <c r="C319" t="s">
         <v>8</v>
       </c>
-      <c r="D319">
+      <c r="D319" s="1">
         <v>519.68</v>
       </c>
     </row>
@@ -34550,7 +34569,7 @@
       <c r="C320" t="s">
         <v>5</v>
       </c>
-      <c r="D320">
+      <c r="D320" s="1">
         <v>14.352</v>
       </c>
     </row>
@@ -34564,7 +34583,7 @@
       <c r="C321" t="s">
         <v>840</v>
       </c>
-      <c r="D321">
+      <c r="D321" s="1">
         <v>1410.066</v>
       </c>
     </row>
@@ -34578,7 +34597,7 @@
       <c r="C322" t="s">
         <v>840</v>
       </c>
-      <c r="D322">
+      <c r="D322" s="1">
         <v>232.624</v>
       </c>
     </row>
@@ -34592,7 +34611,7 @@
       <c r="C323" t="s">
         <v>840</v>
       </c>
-      <c r="D323">
+      <c r="D323" s="1">
         <v>871.8</v>
       </c>
     </row>
@@ -34606,7 +34625,7 @@
       <c r="C324" t="s">
         <v>8</v>
       </c>
-      <c r="D324">
+      <c r="D324" s="1">
         <v>334.256</v>
       </c>
     </row>
@@ -34620,7 +34639,7 @@
       <c r="C325" t="s">
         <v>8</v>
       </c>
-      <c r="D325">
+      <c r="D325" s="1">
         <v>185.88</v>
       </c>
     </row>
@@ -34634,7 +34653,7 @@
       <c r="C326" t="s">
         <v>8</v>
       </c>
-      <c r="D326">
+      <c r="D326" s="1">
         <v>4317.3</v>
       </c>
     </row>
@@ -34648,7 +34667,7 @@
       <c r="C327" t="s">
         <v>8</v>
       </c>
-      <c r="D327">
+      <c r="D327" s="1">
         <v>574.056</v>
       </c>
     </row>
@@ -34662,7 +34681,7 @@
       <c r="C328" t="s">
         <v>8</v>
       </c>
-      <c r="D328">
+      <c r="D328" s="1">
         <v>45.584</v>
       </c>
     </row>
@@ -34676,7 +34695,7 @@
       <c r="C329" t="s">
         <v>8</v>
       </c>
-      <c r="D329">
+      <c r="D329" s="1">
         <v>12.96</v>
       </c>
     </row>
@@ -34690,7 +34709,7 @@
       <c r="C330" t="s">
         <v>8</v>
       </c>
-      <c r="D330">
+      <c r="D330" s="1">
         <v>24.066</v>
       </c>
     </row>
@@ -34704,7 +34723,7 @@
       <c r="C331" t="s">
         <v>8</v>
       </c>
-      <c r="D331">
+      <c r="D331" s="1">
         <v>9.216</v>
       </c>
     </row>
@@ -34718,7 +34737,7 @@
       <c r="C332" t="s">
         <v>840</v>
       </c>
-      <c r="D332">
+      <c r="D332" s="1">
         <v>36.364</v>
       </c>
     </row>
@@ -34732,7 +34751,7 @@
       <c r="C333" t="s">
         <v>8</v>
       </c>
-      <c r="D333">
+      <c r="D333" s="1">
         <v>239.5</v>
       </c>
     </row>
@@ -34746,7 +34765,7 @@
       <c r="C334" t="s">
         <v>8</v>
       </c>
-      <c r="D334">
+      <c r="D334" s="1">
         <v>562.2925</v>
       </c>
     </row>
@@ -34760,7 +34779,7 @@
       <c r="C335" t="s">
         <v>8</v>
       </c>
-      <c r="D335">
+      <c r="D335" s="1">
         <v>31.086</v>
       </c>
     </row>
@@ -34774,7 +34793,7 @@
       <c r="C336" t="s">
         <v>8</v>
       </c>
-      <c r="D336">
+      <c r="D336" s="1">
         <v>866.4</v>
       </c>
     </row>
@@ -34788,7 +34807,7 @@
       <c r="C337" t="s">
         <v>8</v>
       </c>
-      <c r="D337">
+      <c r="D337" s="1">
         <v>705.544</v>
       </c>
     </row>
@@ -34802,7 +34821,7 @@
       <c r="C338" t="s">
         <v>8</v>
       </c>
-      <c r="D338">
+      <c r="D338" s="1">
         <v>16.218</v>
       </c>
     </row>
@@ -34816,7 +34835,7 @@
       <c r="C339" t="s">
         <v>8</v>
       </c>
-      <c r="D339">
+      <c r="D339" s="1">
         <v>92.7</v>
       </c>
     </row>
@@ -34830,7 +34849,7 @@
       <c r="C340" t="s">
         <v>5</v>
       </c>
-      <c r="D340">
+      <c r="D340" s="1">
         <v>15.552</v>
       </c>
     </row>
@@ -34844,7 +34863,7 @@
       <c r="C341" t="s">
         <v>5</v>
       </c>
-      <c r="D341">
+      <c r="D341" s="1">
         <v>75.88</v>
       </c>
     </row>
@@ -34858,7 +34877,7 @@
       <c r="C342" t="s">
         <v>840</v>
       </c>
-      <c r="D342">
+      <c r="D342" s="1">
         <v>290.98</v>
       </c>
     </row>
@@ -34872,7 +34891,7 @@
       <c r="C343" t="s">
         <v>8</v>
       </c>
-      <c r="D343">
+      <c r="D343" s="1">
         <v>239.976</v>
       </c>
     </row>
@@ -34886,7 +34905,7 @@
       <c r="C344" t="s">
         <v>8</v>
       </c>
-      <c r="D344">
+      <c r="D344" s="1">
         <v>52.136</v>
       </c>
     </row>
@@ -34900,7 +34919,7 @@
       <c r="C345" t="s">
         <v>840</v>
       </c>
-      <c r="D345">
+      <c r="D345" s="1">
         <v>10.08</v>
       </c>
     </row>
@@ -34914,7 +34933,7 @@
       <c r="C346" t="s">
         <v>840</v>
       </c>
-      <c r="D346">
+      <c r="D346" s="1">
         <v>31.83</v>
       </c>
     </row>
@@ -34928,7 +34947,7 @@
       <c r="C347" t="s">
         <v>8</v>
       </c>
-      <c r="D347">
+      <c r="D347" s="1">
         <v>37.264</v>
       </c>
     </row>
@@ -34942,7 +34961,7 @@
       <c r="C348" t="s">
         <v>8</v>
       </c>
-      <c r="D348">
+      <c r="D348" s="1">
         <v>392.832</v>
       </c>
     </row>
@@ -34956,7 +34975,7 @@
       <c r="C349" t="s">
         <v>8</v>
       </c>
-      <c r="D349">
+      <c r="D349" s="1">
         <v>7.434</v>
       </c>
     </row>
@@ -34970,7 +34989,7 @@
       <c r="C350" t="s">
         <v>8</v>
       </c>
-      <c r="D350">
+      <c r="D350" s="1">
         <v>1159.06</v>
       </c>
     </row>
@@ -34984,7 +35003,7 @@
       <c r="C351" t="s">
         <v>8</v>
       </c>
-      <c r="D351">
+      <c r="D351" s="1">
         <v>191.808</v>
       </c>
     </row>
@@ -34998,7 +35017,7 @@
       <c r="C352" t="s">
         <v>5</v>
       </c>
-      <c r="D352">
+      <c r="D352" s="1">
         <v>191.82</v>
       </c>
     </row>
@@ -35012,7 +35031,7 @@
       <c r="C353" t="s">
         <v>8</v>
       </c>
-      <c r="D353">
+      <c r="D353" s="1">
         <v>132.224</v>
       </c>
     </row>
@@ -35026,7 +35045,7 @@
       <c r="C354" t="s">
         <v>5</v>
       </c>
-      <c r="D354">
+      <c r="D354" s="1">
         <v>125.92</v>
       </c>
     </row>
@@ -35040,7 +35059,7 @@
       <c r="C355" t="s">
         <v>5</v>
       </c>
-      <c r="D355">
+      <c r="D355" s="1">
         <v>224.9</v>
       </c>
     </row>
@@ -35054,7 +35073,7 @@
       <c r="C356" t="s">
         <v>6</v>
       </c>
-      <c r="D356">
+      <c r="D356" s="1">
         <v>863.928</v>
       </c>
     </row>
@@ -35068,7 +35087,7 @@
       <c r="C357" t="s">
         <v>840</v>
       </c>
-      <c r="D357">
+      <c r="D357" s="1">
         <v>7.04</v>
       </c>
     </row>
@@ -35082,7 +35101,7 @@
       <c r="C358" t="s">
         <v>8</v>
       </c>
-      <c r="D358">
+      <c r="D358" s="1">
         <v>36.24</v>
       </c>
     </row>
@@ -35096,7 +35115,7 @@
       <c r="C359" t="s">
         <v>5</v>
       </c>
-      <c r="D359">
+      <c r="D359" s="1">
         <v>34.944</v>
       </c>
     </row>
@@ -35110,7 +35129,7 @@
       <c r="C360" t="s">
         <v>6</v>
       </c>
-      <c r="D360">
+      <c r="D360" s="1">
         <v>630.024</v>
       </c>
     </row>
@@ -35124,7 +35143,7 @@
       <c r="C361" t="s">
         <v>840</v>
       </c>
-      <c r="D361">
+      <c r="D361" s="1">
         <v>513.52</v>
       </c>
     </row>
@@ -35138,7 +35157,7 @@
       <c r="C362" t="s">
         <v>8</v>
       </c>
-      <c r="D362">
+      <c r="D362" s="1">
         <v>291.74</v>
       </c>
     </row>
@@ -35152,7 +35171,7 @@
       <c r="C363" t="s">
         <v>8</v>
       </c>
-      <c r="D363">
+      <c r="D363" s="1">
         <v>681.432</v>
       </c>
     </row>
@@ -35166,7 +35185,7 @@
       <c r="C364" t="s">
         <v>8</v>
       </c>
-      <c r="D364">
+      <c r="D364" s="1">
         <v>73.36</v>
       </c>
     </row>
@@ -35180,7 +35199,7 @@
       <c r="C365" t="s">
         <v>8</v>
       </c>
-      <c r="D365">
+      <c r="D365" s="1">
         <v>99.156</v>
       </c>
     </row>
@@ -35194,7 +35213,7 @@
       <c r="C366" t="s">
         <v>8</v>
       </c>
-      <c r="D366">
+      <c r="D366" s="1">
         <v>405.344</v>
       </c>
     </row>
@@ -35208,7 +35227,7 @@
       <c r="C367" t="s">
         <v>5</v>
       </c>
-      <c r="D367">
+      <c r="D367" s="1">
         <v>3236.41</v>
       </c>
     </row>
@@ -35222,7 +35241,7 @@
       <c r="C368" t="s">
         <v>5</v>
       </c>
-      <c r="D368">
+      <c r="D368" s="1">
         <v>58.4</v>
       </c>
     </row>
@@ -35236,7 +35255,7 @@
       <c r="C369" t="s">
         <v>8</v>
       </c>
-      <c r="D369">
+      <c r="D369" s="1">
         <v>396</v>
       </c>
     </row>
@@ -35250,7 +35269,7 @@
       <c r="C370" t="s">
         <v>840</v>
       </c>
-      <c r="D370">
+      <c r="D370" s="1">
         <v>255.904</v>
       </c>
     </row>
@@ -35264,7 +35283,7 @@
       <c r="C371" t="s">
         <v>8</v>
       </c>
-      <c r="D371">
+      <c r="D371" s="1">
         <v>115.48</v>
       </c>
     </row>
@@ -35278,7 +35297,7 @@
       <c r="C372" t="s">
         <v>8</v>
       </c>
-      <c r="D372">
+      <c r="D372" s="1">
         <v>215.84</v>
       </c>
     </row>
@@ -35292,7 +35311,7 @@
       <c r="C373" t="s">
         <v>8</v>
       </c>
-      <c r="D373">
+      <c r="D373" s="1">
         <v>387.72</v>
       </c>
     </row>
@@ -35306,7 +35325,7 @@
       <c r="C374" t="s">
         <v>6</v>
       </c>
-      <c r="D374">
+      <c r="D374" s="1">
         <v>261.1</v>
       </c>
     </row>
@@ -35320,7 +35339,7 @@
       <c r="C375" t="s">
         <v>840</v>
       </c>
-      <c r="D375">
+      <c r="D375" s="1">
         <v>228.586</v>
       </c>
     </row>
@@ -35334,7 +35353,7 @@
       <c r="C376" t="s">
         <v>8</v>
       </c>
-      <c r="D376">
+      <c r="D376" s="1">
         <v>74.32</v>
       </c>
     </row>
@@ -35348,7 +35367,7 @@
       <c r="C377" t="s">
         <v>8</v>
       </c>
-      <c r="D377">
+      <c r="D377" s="1">
         <v>4.704</v>
       </c>
     </row>
@@ -35362,7 +35381,7 @@
       <c r="C378" t="s">
         <v>840</v>
       </c>
-      <c r="D378">
+      <c r="D378" s="1">
         <v>859.14</v>
       </c>
     </row>
@@ -35376,7 +35395,7 @@
       <c r="C379" t="s">
         <v>8</v>
       </c>
-      <c r="D379">
+      <c r="D379" s="1">
         <v>41.86</v>
       </c>
     </row>
@@ -35390,7 +35409,7 @@
       <c r="C380" t="s">
         <v>8</v>
       </c>
-      <c r="D380">
+      <c r="D380" s="1">
         <v>452.464</v>
       </c>
     </row>
@@ -35404,7 +35423,7 @@
       <c r="C381" t="s">
         <v>8</v>
       </c>
-      <c r="D381">
+      <c r="D381" s="1">
         <v>1311.97</v>
       </c>
     </row>
@@ -35418,7 +35437,7 @@
       <c r="C382" t="s">
         <v>8</v>
       </c>
-      <c r="D382">
+      <c r="D382" s="1">
         <v>233.48</v>
       </c>
     </row>
@@ -35432,7 +35451,7 @@
       <c r="C383" t="s">
         <v>8</v>
       </c>
-      <c r="D383">
+      <c r="D383" s="1">
         <v>40.896</v>
       </c>
     </row>
@@ -35446,7 +35465,7 @@
       <c r="C384" t="s">
         <v>840</v>
       </c>
-      <c r="D384">
+      <c r="D384" s="1">
         <v>191.88</v>
       </c>
     </row>
@@ -35460,7 +35479,7 @@
       <c r="C385" t="s">
         <v>8</v>
       </c>
-      <c r="D385">
+      <c r="D385" s="1">
         <v>365.44</v>
       </c>
     </row>
@@ -35474,7 +35493,7 @@
       <c r="C386" t="s">
         <v>8</v>
       </c>
-      <c r="D386">
+      <c r="D386" s="1">
         <v>38.19</v>
       </c>
     </row>
@@ -35488,7 +35507,7 @@
       <c r="C387" t="s">
         <v>8</v>
       </c>
-      <c r="D387">
+      <c r="D387" s="1">
         <v>383.438</v>
       </c>
     </row>
@@ -35502,7 +35521,7 @@
       <c r="C388" t="s">
         <v>840</v>
       </c>
-      <c r="D388">
+      <c r="D388" s="1">
         <v>91.475</v>
       </c>
     </row>
@@ -35516,7 +35535,7 @@
       <c r="C389" t="s">
         <v>840</v>
       </c>
-      <c r="D389">
+      <c r="D389" s="1">
         <v>7.764</v>
       </c>
     </row>
@@ -35530,7 +35549,7 @@
       <c r="C390" t="s">
         <v>8</v>
       </c>
-      <c r="D390">
+      <c r="D390" s="1">
         <v>342.76</v>
       </c>
     </row>
@@ -35544,7 +35563,7 @@
       <c r="C391" t="s">
         <v>8</v>
       </c>
-      <c r="D391">
+      <c r="D391" s="1">
         <v>254.99</v>
       </c>
     </row>
@@ -35558,7 +35577,7 @@
       <c r="C392" t="s">
         <v>8</v>
       </c>
-      <c r="D392">
+      <c r="D392" s="1">
         <v>370.184</v>
       </c>
     </row>
@@ -35572,7 +35591,7 @@
       <c r="C393" t="s">
         <v>6</v>
       </c>
-      <c r="D393">
+      <c r="D393" s="1">
         <v>10.74</v>
       </c>
     </row>
@@ -35586,7 +35605,7 @@
       <c r="C394" t="s">
         <v>840</v>
       </c>
-      <c r="D394">
+      <c r="D394" s="1">
         <v>2145.25</v>
       </c>
     </row>
@@ -35600,7 +35619,7 @@
       <c r="C395" t="s">
         <v>6</v>
       </c>
-      <c r="D395">
+      <c r="D395" s="1">
         <v>314.393</v>
       </c>
     </row>
@@ -35614,7 +35633,7 @@
       <c r="C396" t="s">
         <v>5</v>
       </c>
-      <c r="D396">
+      <c r="D396" s="1">
         <v>79.14</v>
       </c>
     </row>
@@ -35628,7 +35647,7 @@
       <c r="C397" t="s">
         <v>5</v>
       </c>
-      <c r="D397">
+      <c r="D397" s="1">
         <v>3.282</v>
       </c>
     </row>
@@ -35642,7 +35661,7 @@
       <c r="C398" t="s">
         <v>8</v>
       </c>
-      <c r="D398">
+      <c r="D398" s="1">
         <v>64.248</v>
       </c>
     </row>
@@ -35656,7 +35675,7 @@
       <c r="C399" t="s">
         <v>8</v>
       </c>
-      <c r="D399">
+      <c r="D399" s="1">
         <v>1264.14</v>
       </c>
     </row>
@@ -35670,7 +35689,7 @@
       <c r="C400" t="s">
         <v>8</v>
       </c>
-      <c r="D400">
+      <c r="D400" s="1">
         <v>133.38</v>
       </c>
     </row>
@@ -35684,7 +35703,7 @@
       <c r="C401" t="s">
         <v>8</v>
       </c>
-      <c r="D401">
+      <c r="D401" s="1">
         <v>264.18</v>
       </c>
     </row>
@@ -35698,7 +35717,7 @@
       <c r="C402" t="s">
         <v>8</v>
       </c>
-      <c r="D402">
+      <c r="D402" s="1">
         <v>558.24</v>
       </c>
     </row>
@@ -35712,7 +35731,7 @@
       <c r="C403" t="s">
         <v>5</v>
       </c>
-      <c r="D403">
+      <c r="D403" s="1">
         <v>695.7</v>
       </c>
     </row>
@@ -35726,7 +35745,7 @@
       <c r="C404" t="s">
         <v>8</v>
       </c>
-      <c r="D404">
+      <c r="D404" s="1">
         <v>870.04</v>
       </c>
     </row>
@@ -35740,7 +35759,7 @@
       <c r="C405" t="s">
         <v>840</v>
       </c>
-      <c r="D405">
+      <c r="D405" s="1">
         <v>55.416</v>
       </c>
     </row>
@@ -35754,7 +35773,7 @@
       <c r="C406" t="s">
         <v>5</v>
       </c>
-      <c r="D406">
+      <c r="D406" s="1">
         <v>10.44</v>
       </c>
     </row>
@@ -35768,7 +35787,7 @@
       <c r="C407" t="s">
         <v>840</v>
       </c>
-      <c r="D407">
+      <c r="D407" s="1">
         <v>131.104</v>
       </c>
     </row>
@@ -35782,7 +35801,7 @@
       <c r="C408" t="s">
         <v>840</v>
       </c>
-      <c r="D408">
+      <c r="D408" s="1">
         <v>487.22</v>
       </c>
     </row>
@@ -35796,7 +35815,7 @@
       <c r="C409" t="s">
         <v>8</v>
       </c>
-      <c r="D409">
+      <c r="D409" s="1">
         <v>17.92</v>
       </c>
     </row>
@@ -35810,7 +35829,7 @@
       <c r="C410" t="s">
         <v>8</v>
       </c>
-      <c r="D410">
+      <c r="D410" s="1">
         <v>34.34</v>
       </c>
     </row>
@@ -35824,7 +35843,7 @@
       <c r="C411" t="s">
         <v>840</v>
       </c>
-      <c r="D411">
+      <c r="D411" s="1">
         <v>993.9</v>
       </c>
     </row>
@@ -35838,7 +35857,7 @@
       <c r="C412" t="s">
         <v>6</v>
       </c>
-      <c r="D412">
+      <c r="D412" s="1">
         <v>85.5</v>
       </c>
     </row>
@@ -35852,7 +35871,7 @@
       <c r="C413" t="s">
         <v>6</v>
       </c>
-      <c r="D413">
+      <c r="D413" s="1">
         <v>839.944</v>
       </c>
     </row>
@@ -35866,7 +35885,7 @@
       <c r="C414" t="s">
         <v>5</v>
       </c>
-      <c r="D414">
+      <c r="D414" s="1">
         <v>783.96</v>
       </c>
     </row>
@@ -35880,7 +35899,7 @@
       <c r="C415" t="s">
         <v>8</v>
       </c>
-      <c r="D415">
+      <c r="D415" s="1">
         <v>187.056</v>
       </c>
     </row>
@@ -35894,7 +35913,7 @@
       <c r="C416" t="s">
         <v>8</v>
       </c>
-      <c r="D416">
+      <c r="D416" s="1">
         <v>4.98</v>
       </c>
     </row>
@@ -35908,7 +35927,7 @@
       <c r="C417" t="s">
         <v>840</v>
       </c>
-      <c r="D417">
+      <c r="D417" s="1">
         <v>225.296</v>
       </c>
     </row>
@@ -35922,7 +35941,7 @@
       <c r="C418" t="s">
         <v>8</v>
       </c>
-      <c r="D418">
+      <c r="D418" s="1">
         <v>99.872</v>
       </c>
     </row>
@@ -35936,7 +35955,7 @@
       <c r="C419" t="s">
         <v>8</v>
       </c>
-      <c r="D419">
+      <c r="D419" s="1">
         <v>25.92</v>
       </c>
     </row>
@@ -35950,7 +35969,7 @@
       <c r="C420" t="s">
         <v>840</v>
       </c>
-      <c r="D420">
+      <c r="D420" s="1">
         <v>21.504</v>
       </c>
     </row>
@@ -35964,7 +35983,7 @@
       <c r="C421" t="s">
         <v>8</v>
       </c>
-      <c r="D421">
+      <c r="D421" s="1">
         <v>305.248</v>
       </c>
     </row>
@@ -35978,7 +35997,7 @@
       <c r="C422" t="s">
         <v>8</v>
       </c>
-      <c r="D422">
+      <c r="D422" s="1">
         <v>60.485</v>
       </c>
     </row>
@@ -35992,7 +36011,7 @@
       <c r="C423" t="s">
         <v>840</v>
       </c>
-      <c r="D423">
+      <c r="D423" s="1">
         <v>199.18</v>
       </c>
     </row>
@@ -36006,7 +36025,7 @@
       <c r="C424" t="s">
         <v>8</v>
       </c>
-      <c r="D424">
+      <c r="D424" s="1">
         <v>641.96</v>
       </c>
     </row>
@@ -36020,7 +36039,7 @@
       <c r="C425" t="s">
         <v>5</v>
       </c>
-      <c r="D425">
+      <c r="D425" s="1">
         <v>1120.73</v>
       </c>
     </row>
@@ -36034,7 +36053,7 @@
       <c r="C426" t="s">
         <v>5</v>
       </c>
-      <c r="D426">
+      <c r="D426" s="1">
         <v>18.48</v>
       </c>
     </row>
@@ -36048,7 +36067,7 @@
       <c r="C427" t="s">
         <v>8</v>
       </c>
-      <c r="D427">
+      <c r="D427" s="1">
         <v>88.15</v>
       </c>
     </row>
@@ -36062,7 +36081,7 @@
       <c r="C428" t="s">
         <v>8</v>
       </c>
-      <c r="D428">
+      <c r="D428" s="1">
         <v>140.81</v>
       </c>
     </row>
@@ -36076,7 +36095,7 @@
       <c r="C429" t="s">
         <v>840</v>
       </c>
-      <c r="D429">
+      <c r="D429" s="1">
         <v>8805.04</v>
       </c>
     </row>
@@ -36090,7 +36109,7 @@
       <c r="C430" t="s">
         <v>5</v>
       </c>
-      <c r="D430">
+      <c r="D430" s="1">
         <v>177.78</v>
       </c>
     </row>
@@ -36104,7 +36123,7 @@
       <c r="C431" t="s">
         <v>8</v>
       </c>
-      <c r="D431">
+      <c r="D431" s="1">
         <v>273.59</v>
       </c>
     </row>
@@ -36118,7 +36137,7 @@
       <c r="C432" t="s">
         <v>6</v>
       </c>
-      <c r="D432">
+      <c r="D432" s="1">
         <v>14.73</v>
       </c>
     </row>
@@ -36132,7 +36151,7 @@
       <c r="C433" t="s">
         <v>840</v>
       </c>
-      <c r="D433">
+      <c r="D433" s="1">
         <v>27.86</v>
       </c>
     </row>
@@ -36146,7 +36165,7 @@
       <c r="C434" t="s">
         <v>8</v>
       </c>
-      <c r="D434">
+      <c r="D434" s="1">
         <v>1396.35</v>
       </c>
     </row>
@@ -36160,7 +36179,7 @@
       <c r="C435" t="s">
         <v>8</v>
       </c>
-      <c r="D435">
+      <c r="D435" s="1">
         <v>40.68</v>
       </c>
     </row>
@@ -36174,7 +36193,7 @@
       <c r="C436" t="s">
         <v>8</v>
       </c>
-      <c r="D436">
+      <c r="D436" s="1">
         <v>135.95</v>
       </c>
     </row>
@@ -36188,7 +36207,7 @@
       <c r="C437" t="s">
         <v>8</v>
       </c>
-      <c r="D437">
+      <c r="D437" s="1">
         <v>72.224</v>
       </c>
     </row>
@@ -36202,7 +36221,7 @@
       <c r="C438" t="s">
         <v>5</v>
       </c>
-      <c r="D438">
+      <c r="D438" s="1">
         <v>31.008</v>
       </c>
     </row>
@@ -36216,7 +36235,7 @@
       <c r="C439" t="s">
         <v>5</v>
       </c>
-      <c r="D439">
+      <c r="D439" s="1">
         <v>121.78</v>
       </c>
     </row>
@@ -36230,7 +36249,7 @@
       <c r="C440" t="s">
         <v>840</v>
       </c>
-      <c r="D440">
+      <c r="D440" s="1">
         <v>1106.924</v>
       </c>
     </row>
@@ -36244,7 +36263,7 @@
       <c r="C441" t="s">
         <v>840</v>
       </c>
-      <c r="D441">
+      <c r="D441" s="1">
         <v>1302.83</v>
       </c>
     </row>
@@ -36258,7 +36277,7 @@
       <c r="C442" t="s">
         <v>840</v>
       </c>
-      <c r="D442">
+      <c r="D442" s="1">
         <v>86.45</v>
       </c>
     </row>
@@ -36272,7 +36291,7 @@
       <c r="C443" t="s">
         <v>5</v>
       </c>
-      <c r="D443">
+      <c r="D443" s="1">
         <v>31.4</v>
       </c>
     </row>
@@ -36286,7 +36305,7 @@
       <c r="C444" t="s">
         <v>840</v>
       </c>
-      <c r="D444">
+      <c r="D444" s="1">
         <v>2673.69</v>
       </c>
     </row>
@@ -36300,7 +36319,7 @@
       <c r="C445" t="s">
         <v>8</v>
       </c>
-      <c r="D445">
+      <c r="D445" s="1">
         <v>186.54</v>
       </c>
     </row>
@@ -36314,7 +36333,7 @@
       <c r="C446" t="s">
         <v>8</v>
       </c>
-      <c r="D446">
+      <c r="D446" s="1">
         <v>1110.5</v>
       </c>
     </row>
@@ -36328,7 +36347,7 @@
       <c r="C447" t="s">
         <v>840</v>
       </c>
-      <c r="D447">
+      <c r="D447" s="1">
         <v>67.56</v>
       </c>
     </row>
@@ -36342,7 +36361,7 @@
       <c r="C448" t="s">
         <v>8</v>
       </c>
-      <c r="D448">
+      <c r="D448" s="1">
         <v>732.156</v>
       </c>
     </row>
@@ -36356,7 +36375,7 @@
       <c r="C449" t="s">
         <v>840</v>
       </c>
-      <c r="D449">
+      <c r="D449" s="1">
         <v>81.2</v>
       </c>
     </row>
@@ -36370,7 +36389,7 @@
       <c r="C450" t="s">
         <v>5</v>
       </c>
-      <c r="D450">
+      <c r="D450" s="1">
         <v>377.346</v>
       </c>
     </row>
@@ -36384,7 +36403,7 @@
       <c r="C451" t="s">
         <v>8</v>
       </c>
-      <c r="D451">
+      <c r="D451" s="1">
         <v>324.387</v>
       </c>
     </row>
@@ -36398,7 +36417,7 @@
       <c r="C452" t="s">
         <v>8</v>
       </c>
-      <c r="D452">
+      <c r="D452" s="1">
         <v>5.08</v>
       </c>
     </row>
@@ -36412,7 +36431,7 @@
       <c r="C453" t="s">
         <v>8</v>
       </c>
-      <c r="D453">
+      <c r="D453" s="1">
         <v>50.496</v>
       </c>
     </row>
@@ -36426,7 +36445,7 @@
       <c r="C454" t="s">
         <v>8</v>
       </c>
-      <c r="D454">
+      <c r="D454" s="1">
         <v>158.256</v>
       </c>
     </row>
@@ -36440,7 +36459,7 @@
       <c r="C455" t="s">
         <v>8</v>
       </c>
-      <c r="D455">
+      <c r="D455" s="1">
         <v>138.53</v>
       </c>
     </row>
@@ -36454,7 +36473,7 @@
       <c r="C456" t="s">
         <v>8</v>
       </c>
-      <c r="D456">
+      <c r="D456" s="1">
         <v>16.496</v>
       </c>
     </row>
@@ -36468,7 +36487,7 @@
       <c r="C457" t="s">
         <v>8</v>
       </c>
-      <c r="D457">
+      <c r="D457" s="1">
         <v>66.3</v>
       </c>
     </row>
@@ -36482,7 +36501,7 @@
       <c r="C458" t="s">
         <v>840</v>
       </c>
-      <c r="D458">
+      <c r="D458" s="1">
         <v>1002.7</v>
       </c>
     </row>
@@ -36496,7 +36515,7 @@
       <c r="C459" t="s">
         <v>840</v>
       </c>
-      <c r="D459">
+      <c r="D459" s="1">
         <v>903.77</v>
       </c>
     </row>
@@ -36510,7 +36529,7 @@
       <c r="C460" t="s">
         <v>8</v>
       </c>
-      <c r="D460">
+      <c r="D460" s="1">
         <v>23.34</v>
       </c>
     </row>
@@ -36524,7 +36543,7 @@
       <c r="C461" t="s">
         <v>8</v>
       </c>
-      <c r="D461">
+      <c r="D461" s="1">
         <v>1466.32</v>
       </c>
     </row>
@@ -36538,7 +36557,7 @@
       <c r="C462" t="s">
         <v>840</v>
       </c>
-      <c r="D462">
+      <c r="D462" s="1">
         <v>111.672</v>
       </c>
     </row>
@@ -36552,7 +36571,7 @@
       <c r="C463" t="s">
         <v>8</v>
       </c>
-      <c r="D463">
+      <c r="D463" s="1">
         <v>141.96</v>
       </c>
     </row>
@@ -36566,7 +36585,7 @@
       <c r="C464" t="s">
         <v>8</v>
       </c>
-      <c r="D464">
+      <c r="D464" s="1">
         <v>12.48</v>
       </c>
     </row>
@@ -36580,7 +36599,7 @@
       <c r="C465" t="s">
         <v>8</v>
       </c>
-      <c r="D465">
+      <c r="D465" s="1">
         <v>1030.742</v>
       </c>
     </row>
@@ -36594,7 +36613,7 @@
       <c r="C466" t="s">
         <v>8</v>
       </c>
-      <c r="D466">
+      <c r="D466" s="1">
         <v>699.4</v>
       </c>
     </row>
@@ -36608,7 +36627,7 @@
       <c r="C467" t="s">
         <v>8</v>
       </c>
-      <c r="D467">
+      <c r="D467" s="1">
         <v>843.84</v>
       </c>
     </row>
@@ -36622,7 +36641,7 @@
       <c r="C468" t="s">
         <v>840</v>
       </c>
-      <c r="D468">
+      <c r="D468" s="1">
         <v>13.152</v>
       </c>
     </row>
@@ -36636,7 +36655,7 @@
       <c r="C469" t="s">
         <v>840</v>
       </c>
-      <c r="D469">
+      <c r="D469" s="1">
         <v>14.336</v>
       </c>
     </row>
@@ -36650,7 +36669,7 @@
       <c r="C470" t="s">
         <v>840</v>
       </c>
-      <c r="D470">
+      <c r="D470" s="1">
         <v>61.216</v>
       </c>
     </row>
@@ -36664,7 +36683,7 @@
       <c r="C471" t="s">
         <v>8</v>
       </c>
-      <c r="D471">
+      <c r="D471" s="1">
         <v>3740.51</v>
       </c>
     </row>
@@ -36678,7 +36697,7 @@
       <c r="C472" t="s">
         <v>840</v>
       </c>
-      <c r="D472">
+      <c r="D472" s="1">
         <v>212.91</v>
       </c>
     </row>
@@ -36692,7 +36711,7 @@
       <c r="C473" t="s">
         <v>8</v>
       </c>
-      <c r="D473">
+      <c r="D473" s="1">
         <v>3.76</v>
       </c>
     </row>
@@ -36706,7 +36725,7 @@
       <c r="C474" t="s">
         <v>8</v>
       </c>
-      <c r="D474">
+      <c r="D474" s="1">
         <v>248.396</v>
       </c>
     </row>
@@ -36720,7 +36739,7 @@
       <c r="C475" t="s">
         <v>8</v>
       </c>
-      <c r="D475">
+      <c r="D475" s="1">
         <v>177.08</v>
       </c>
     </row>
@@ -36734,7 +36753,7 @@
       <c r="C476" t="s">
         <v>840</v>
       </c>
-      <c r="D476">
+      <c r="D476" s="1">
         <v>26.4</v>
       </c>
     </row>
@@ -36748,7 +36767,7 @@
       <c r="C477" t="s">
         <v>6</v>
       </c>
-      <c r="D477">
+      <c r="D477" s="1">
         <v>59.824</v>
       </c>
     </row>
@@ -36762,7 +36781,7 @@
       <c r="C478" t="s">
         <v>5</v>
       </c>
-      <c r="D478">
+      <c r="D478" s="1">
         <v>1541.51</v>
       </c>
     </row>
@@ -36776,7 +36795,7 @@
       <c r="C479" t="s">
         <v>8</v>
       </c>
-      <c r="D479">
+      <c r="D479" s="1">
         <v>209.568</v>
       </c>
     </row>
@@ -36790,7 +36809,7 @@
       <c r="C480" t="s">
         <v>8</v>
       </c>
-      <c r="D480">
+      <c r="D480" s="1">
         <v>20.768</v>
       </c>
     </row>
@@ -36804,7 +36823,7 @@
       <c r="C481" t="s">
         <v>8</v>
       </c>
-      <c r="D481">
+      <c r="D481" s="1">
         <v>951.98</v>
       </c>
     </row>
@@ -36818,7 +36837,7 @@
       <c r="C482" t="s">
         <v>840</v>
       </c>
-      <c r="D482">
+      <c r="D482" s="1">
         <v>552.856</v>
       </c>
     </row>
@@ -36832,7 +36851,7 @@
       <c r="C483" t="s">
         <v>5</v>
       </c>
-      <c r="D483">
+      <c r="D483" s="1">
         <v>141</v>
       </c>
     </row>
@@ -36846,7 +36865,7 @@
       <c r="C484" t="s">
         <v>8</v>
       </c>
-      <c r="D484">
+      <c r="D484" s="1">
         <v>20.736</v>
       </c>
     </row>
@@ -36860,7 +36879,7 @@
       <c r="C485" t="s">
         <v>8</v>
       </c>
-      <c r="D485">
+      <c r="D485" s="1">
         <v>1347.52</v>
       </c>
     </row>
@@ -36874,7 +36893,7 @@
       <c r="C486" t="s">
         <v>840</v>
       </c>
-      <c r="D486">
+      <c r="D486" s="1">
         <v>194.848</v>
       </c>
     </row>
@@ -36888,7 +36907,7 @@
       <c r="C487" t="s">
         <v>840</v>
       </c>
-      <c r="D487">
+      <c r="D487" s="1">
         <v>23.88</v>
       </c>
     </row>
@@ -36902,7 +36921,7 @@
       <c r="C488" t="s">
         <v>8</v>
       </c>
-      <c r="D488">
+      <c r="D488" s="1">
         <v>491.888</v>
       </c>
     </row>
@@ -36916,7 +36935,7 @@
       <c r="C489" t="s">
         <v>8</v>
       </c>
-      <c r="D489">
+      <c r="D489" s="1">
         <v>559.2</v>
       </c>
     </row>
@@ -36930,7 +36949,7 @@
       <c r="C490" t="s">
         <v>5</v>
       </c>
-      <c r="D490">
+      <c r="D490" s="1">
         <v>12.672</v>
       </c>
     </row>
@@ -36944,7 +36963,7 @@
       <c r="C491" t="s">
         <v>8</v>
       </c>
-      <c r="D491">
+      <c r="D491" s="1">
         <v>26.056</v>
       </c>
     </row>
@@ -36958,7 +36977,7 @@
       <c r="C492" t="s">
         <v>8</v>
       </c>
-      <c r="D492">
+      <c r="D492" s="1">
         <v>649</v>
       </c>
     </row>
@@ -36972,7 +36991,7 @@
       <c r="C493" t="s">
         <v>5</v>
       </c>
-      <c r="D493">
+      <c r="D493" s="1">
         <v>71</v>
       </c>
     </row>
@@ -36986,7 +37005,7 @@
       <c r="C494" t="s">
         <v>5</v>
       </c>
-      <c r="D494">
+      <c r="D494" s="1">
         <v>318.96</v>
       </c>
     </row>
@@ -37000,7 +37019,7 @@
       <c r="C495" t="s">
         <v>8</v>
       </c>
-      <c r="D495">
+      <c r="D495" s="1">
         <v>48.9</v>
       </c>
     </row>
@@ -37014,7 +37033,7 @@
       <c r="C496" t="s">
         <v>8</v>
       </c>
-      <c r="D496">
+      <c r="D496" s="1">
         <v>68.967</v>
       </c>
     </row>
@@ -37028,7 +37047,7 @@
       <c r="C497" t="s">
         <v>8</v>
       </c>
-      <c r="D497">
+      <c r="D497" s="1">
         <v>25.06</v>
       </c>
     </row>
@@ -37042,7 +37061,7 @@
       <c r="C498" t="s">
         <v>5</v>
       </c>
-      <c r="D498">
+      <c r="D498" s="1">
         <v>34.504</v>
       </c>
     </row>
@@ -37056,7 +37075,7 @@
       <c r="C499" t="s">
         <v>5</v>
       </c>
-      <c r="D499">
+      <c r="D499" s="1">
         <v>740.214</v>
       </c>
     </row>
@@ -37070,7 +37089,7 @@
       <c r="C500" t="s">
         <v>8</v>
       </c>
-      <c r="D500">
+      <c r="D500" s="1">
         <v>729.648</v>
       </c>
     </row>
@@ -37084,7 +37103,7 @@
       <c r="C501" t="s">
         <v>840</v>
       </c>
-      <c r="D501">
+      <c r="D501" s="1">
         <v>874.8</v>
       </c>
     </row>
@@ -37098,7 +37117,7 @@
       <c r="C502" t="s">
         <v>840</v>
       </c>
-      <c r="D502">
+      <c r="D502" s="1">
         <v>819.28</v>
       </c>
     </row>
@@ -37112,7 +37131,7 @@
       <c r="C503" t="s">
         <v>8</v>
       </c>
-      <c r="D503">
+      <c r="D503" s="1">
         <v>15.552</v>
       </c>
     </row>
@@ -37126,7 +37145,7 @@
       <c r="C504" t="s">
         <v>8</v>
       </c>
-      <c r="D504">
+      <c r="D504" s="1">
         <v>192.16</v>
       </c>
     </row>
@@ -37140,7 +37159,7 @@
       <c r="C505" t="s">
         <v>840</v>
       </c>
-      <c r="D505">
+      <c r="D505" s="1">
         <v>16.739</v>
       </c>
     </row>
@@ -37154,7 +37173,7 @@
       <c r="C506" t="s">
         <v>5</v>
       </c>
-      <c r="D506">
+      <c r="D506" s="1">
         <v>88.92</v>
       </c>
     </row>
@@ -37168,7 +37187,7 @@
       <c r="C507" t="s">
         <v>5</v>
       </c>
-      <c r="D507">
+      <c r="D507" s="1">
         <v>1017.136</v>
       </c>
     </row>
@@ -37182,7 +37201,7 @@
       <c r="C508" t="s">
         <v>840</v>
       </c>
-      <c r="D508">
+      <c r="D508" s="1">
         <v>10.16</v>
       </c>
     </row>
@@ -37196,7 +37215,7 @@
       <c r="C509" t="s">
         <v>8</v>
       </c>
-      <c r="D509">
+      <c r="D509" s="1">
         <v>504.9</v>
       </c>
     </row>
@@ -37210,7 +37229,7 @@
       <c r="C510" t="s">
         <v>8</v>
       </c>
-      <c r="D510">
+      <c r="D510" s="1">
         <v>177.55</v>
       </c>
     </row>
@@ -37224,7 +37243,7 @@
       <c r="C511" t="s">
         <v>8</v>
       </c>
-      <c r="D511">
+      <c r="D511" s="1">
         <v>863.88</v>
       </c>
     </row>
@@ -37238,7 +37257,7 @@
       <c r="C512" t="s">
         <v>8</v>
       </c>
-      <c r="D512">
+      <c r="D512" s="1">
         <v>659.9</v>
       </c>
     </row>
@@ -37252,7 +37271,7 @@
       <c r="C513" t="s">
         <v>5</v>
       </c>
-      <c r="D513">
+      <c r="D513" s="1">
         <v>13.76</v>
       </c>
     </row>
@@ -37266,7 +37285,7 @@
       <c r="C514" t="s">
         <v>8</v>
       </c>
-      <c r="D514">
+      <c r="D514" s="1">
         <v>243.92</v>
       </c>
     </row>
@@ -37280,7 +37299,7 @@
       <c r="C515" t="s">
         <v>8</v>
       </c>
-      <c r="D515">
+      <c r="D515" s="1">
         <v>105.408</v>
       </c>
     </row>
@@ -37294,7 +37313,7 @@
       <c r="C516" t="s">
         <v>8</v>
       </c>
-      <c r="D516">
+      <c r="D516" s="1">
         <v>2942.784</v>
       </c>
     </row>
@@ -37308,7 +37327,7 @@
       <c r="C517" t="s">
         <v>8</v>
       </c>
-      <c r="D517">
+      <c r="D517" s="1">
         <v>173.8</v>
       </c>
     </row>
@@ -37322,7 +37341,7 @@
       <c r="C518" t="s">
         <v>8</v>
       </c>
-      <c r="D518">
+      <c r="D518" s="1">
         <v>5.67</v>
       </c>
     </row>
@@ -37336,7 +37355,7 @@
       <c r="C519" t="s">
         <v>8</v>
       </c>
-      <c r="D519">
+      <c r="D519" s="1">
         <v>147.184</v>
       </c>
     </row>
@@ -37350,7 +37369,7 @@
       <c r="C520" t="s">
         <v>8</v>
       </c>
-      <c r="D520">
+      <c r="D520" s="1">
         <v>28.08</v>
       </c>
     </row>
@@ -37364,7 +37383,7 @@
       <c r="C521" t="s">
         <v>5</v>
       </c>
-      <c r="D521">
+      <c r="D521" s="1">
         <v>251.64</v>
       </c>
     </row>
@@ -37378,7 +37397,7 @@
       <c r="C522" t="s">
         <v>5</v>
       </c>
-      <c r="D522">
+      <c r="D522" s="1">
         <v>771.8</v>
       </c>
     </row>
@@ -37392,7 +37411,7 @@
       <c r="C523" t="s">
         <v>8</v>
       </c>
-      <c r="D523">
+      <c r="D523" s="1">
         <v>72.8</v>
       </c>
     </row>
@@ -37406,7 +37425,7 @@
       <c r="C524" t="s">
         <v>5</v>
       </c>
-      <c r="D524">
+      <c r="D524" s="1">
         <v>52.696</v>
       </c>
     </row>
@@ -37420,7 +37439,7 @@
       <c r="C525" t="s">
         <v>8</v>
       </c>
-      <c r="D525">
+      <c r="D525" s="1">
         <v>181.86</v>
       </c>
     </row>
@@ -37434,7 +37453,7 @@
       <c r="C526" t="s">
         <v>5</v>
       </c>
-      <c r="D526">
+      <c r="D526" s="1">
         <v>284.19</v>
       </c>
     </row>
@@ -37448,7 +37467,7 @@
       <c r="C527" t="s">
         <v>840</v>
       </c>
-      <c r="D527">
+      <c r="D527" s="1">
         <v>1245.86</v>
       </c>
     </row>
@@ -37462,7 +37481,7 @@
       <c r="C528" t="s">
         <v>5</v>
       </c>
-      <c r="D528">
+      <c r="D528" s="1">
         <v>503.22</v>
       </c>
     </row>
@@ -37476,7 +37495,7 @@
       <c r="C529" t="s">
         <v>6</v>
       </c>
-      <c r="D529">
+      <c r="D529" s="1">
         <v>80.564</v>
       </c>
     </row>
@@ -37490,7 +37509,7 @@
       <c r="C530" t="s">
         <v>5</v>
       </c>
-      <c r="D530">
+      <c r="D530" s="1">
         <v>359.97</v>
       </c>
     </row>
@@ -37504,7 +37523,7 @@
       <c r="C531" t="s">
         <v>840</v>
       </c>
-      <c r="D531">
+      <c r="D531" s="1">
         <v>91.032</v>
       </c>
     </row>
@@ -37518,7 +37537,7 @@
       <c r="C532" t="s">
         <v>8</v>
       </c>
-      <c r="D532">
+      <c r="D532" s="1">
         <v>80.48</v>
       </c>
     </row>
@@ -37532,7 +37551,7 @@
       <c r="C533" t="s">
         <v>5</v>
       </c>
-      <c r="D533">
+      <c r="D533" s="1">
         <v>234.2</v>
       </c>
     </row>
@@ -37546,7 +37565,7 @@
       <c r="C534" t="s">
         <v>8</v>
       </c>
-      <c r="D534">
+      <c r="D534" s="1">
         <v>712.85</v>
       </c>
     </row>
@@ -37560,7 +37579,7 @@
       <c r="C535" t="s">
         <v>8</v>
       </c>
-      <c r="D535">
+      <c r="D535" s="1">
         <v>32.088</v>
       </c>
     </row>
@@ -37574,7 +37593,7 @@
       <c r="C536" t="s">
         <v>8</v>
       </c>
-      <c r="D536">
+      <c r="D536" s="1">
         <v>723.92</v>
       </c>
     </row>
@@ -37588,7 +37607,7 @@
       <c r="C537" t="s">
         <v>5</v>
       </c>
-      <c r="D537">
+      <c r="D537" s="1">
         <v>9.552</v>
       </c>
     </row>
@@ -37602,7 +37621,7 @@
       <c r="C538" t="s">
         <v>8</v>
       </c>
-      <c r="D538">
+      <c r="D538" s="1">
         <v>184.66</v>
       </c>
     </row>
@@ -37616,7 +37635,7 @@
       <c r="C539" t="s">
         <v>5</v>
       </c>
-      <c r="D539">
+      <c r="D539" s="1">
         <v>253.86</v>
       </c>
     </row>
@@ -37630,7 +37649,7 @@
       <c r="C540" t="s">
         <v>8</v>
       </c>
-      <c r="D540">
+      <c r="D540" s="1">
         <v>19.52</v>
       </c>
     </row>
@@ -37644,7 +37663,7 @@
       <c r="C541" t="s">
         <v>8</v>
       </c>
-      <c r="D541">
+      <c r="D541" s="1">
         <v>41.424</v>
       </c>
     </row>
@@ -37658,7 +37677,7 @@
       <c r="C542" t="s">
         <v>8</v>
       </c>
-      <c r="D542">
+      <c r="D542" s="1">
         <v>12.39</v>
       </c>
     </row>
@@ -37672,7 +37691,7 @@
       <c r="C543" t="s">
         <v>8</v>
       </c>
-      <c r="D543">
+      <c r="D543" s="1">
         <v>119.178</v>
       </c>
     </row>
@@ -37686,7 +37705,7 @@
       <c r="C544" t="s">
         <v>8</v>
       </c>
-      <c r="D544">
+      <c r="D544" s="1">
         <v>35.168</v>
       </c>
     </row>
@@ -37700,7 +37719,7 @@
       <c r="C545" t="s">
         <v>5</v>
       </c>
-      <c r="D545">
+      <c r="D545" s="1">
         <v>4.89</v>
       </c>
     </row>
@@ -37714,7 +37733,7 @@
       <c r="C546" t="s">
         <v>8</v>
       </c>
-      <c r="D546">
+      <c r="D546" s="1">
         <v>776.08</v>
       </c>
     </row>
@@ -37728,7 +37747,7 @@
       <c r="C547" t="s">
         <v>8</v>
       </c>
-      <c r="D547">
+      <c r="D547" s="1">
         <v>175.086</v>
       </c>
     </row>
@@ -37742,7 +37761,7 @@
       <c r="C548" t="s">
         <v>8</v>
       </c>
-      <c r="D548">
+      <c r="D548" s="1">
         <v>64.784</v>
       </c>
     </row>
@@ -37756,7 +37775,7 @@
       <c r="C549" t="s">
         <v>840</v>
       </c>
-      <c r="D549">
+      <c r="D549" s="1">
         <v>209.88</v>
       </c>
     </row>
@@ -37770,7 +37789,7 @@
       <c r="C550" t="s">
         <v>8</v>
       </c>
-      <c r="D550">
+      <c r="D550" s="1">
         <v>26.16</v>
       </c>
     </row>
@@ -37784,7 +37803,7 @@
       <c r="C551" t="s">
         <v>840</v>
       </c>
-      <c r="D551">
+      <c r="D551" s="1">
         <v>406.94</v>
       </c>
     </row>
@@ -37798,7 +37817,7 @@
       <c r="C552" t="s">
         <v>8</v>
       </c>
-      <c r="D552">
+      <c r="D552" s="1">
         <v>2382.926</v>
       </c>
     </row>
@@ -37812,7 +37831,7 @@
       <c r="C553" t="s">
         <v>8</v>
       </c>
-      <c r="D553">
+      <c r="D553" s="1">
         <v>71.98</v>
       </c>
     </row>
@@ -37826,7 +37845,7 @@
       <c r="C554" t="s">
         <v>840</v>
       </c>
-      <c r="D554">
+      <c r="D554" s="1">
         <v>18.84</v>
       </c>
     </row>
@@ -37840,7 +37859,7 @@
       <c r="C555" t="s">
         <v>840</v>
       </c>
-      <c r="D555">
+      <c r="D555" s="1">
         <v>47.992</v>
       </c>
     </row>
@@ -37854,7 +37873,7 @@
       <c r="C556" t="s">
         <v>8</v>
       </c>
-      <c r="D556">
+      <c r="D556" s="1">
         <v>629.86</v>
       </c>
     </row>
@@ -37868,7 +37887,7 @@
       <c r="C557" t="s">
         <v>8</v>
       </c>
-      <c r="D557">
+      <c r="D557" s="1">
         <v>81.568</v>
       </c>
     </row>
@@ -37882,7 +37901,7 @@
       <c r="C558" t="s">
         <v>840</v>
       </c>
-      <c r="D558">
+      <c r="D558" s="1">
         <v>4590.344</v>
       </c>
     </row>
@@ -37896,7 +37915,7 @@
       <c r="C559" t="s">
         <v>5</v>
       </c>
-      <c r="D559">
+      <c r="D559" s="1">
         <v>127.95</v>
       </c>
     </row>
@@ -37910,7 +37929,7 @@
       <c r="C560" t="s">
         <v>840</v>
       </c>
-      <c r="D560">
+      <c r="D560" s="1">
         <v>740.59</v>
       </c>
     </row>
@@ -37924,7 +37943,7 @@
       <c r="C561" t="s">
         <v>8</v>
       </c>
-      <c r="D561">
+      <c r="D561" s="1">
         <v>419.136</v>
       </c>
     </row>
@@ -37938,7 +37957,7 @@
       <c r="C562" t="s">
         <v>8</v>
       </c>
-      <c r="D562">
+      <c r="D562" s="1">
         <v>59.76</v>
       </c>
     </row>
@@ -37952,7 +37971,7 @@
       <c r="C563" t="s">
         <v>8</v>
       </c>
-      <c r="D563">
+      <c r="D563" s="1">
         <v>544.38</v>
       </c>
     </row>
@@ -37966,7 +37985,7 @@
       <c r="C564" t="s">
         <v>840</v>
       </c>
-      <c r="D564">
+      <c r="D564" s="1">
         <v>16.272</v>
       </c>
     </row>
@@ -37980,7 +37999,7 @@
       <c r="C565" t="s">
         <v>8</v>
       </c>
-      <c r="D565">
+      <c r="D565" s="1">
         <v>22.744</v>
       </c>
     </row>
@@ -37994,7 +38013,7 @@
       <c r="C566" t="s">
         <v>8</v>
       </c>
-      <c r="D566">
+      <c r="D566" s="1">
         <v>52.344</v>
       </c>
     </row>
@@ -38008,7 +38027,7 @@
       <c r="C567" t="s">
         <v>5</v>
       </c>
-      <c r="D567">
+      <c r="D567" s="1">
         <v>109.968</v>
       </c>
     </row>
@@ -38022,7 +38041,7 @@
       <c r="C568" t="s">
         <v>6</v>
       </c>
-      <c r="D568">
+      <c r="D568" s="1">
         <v>117.62</v>
       </c>
     </row>
@@ -38036,7 +38055,7 @@
       <c r="C569" t="s">
         <v>5</v>
       </c>
-      <c r="D569">
+      <c r="D569" s="1">
         <v>271.96</v>
       </c>
     </row>
@@ -38050,7 +38069,7 @@
       <c r="C570" t="s">
         <v>840</v>
       </c>
-      <c r="D570">
+      <c r="D570" s="1">
         <v>3098.61</v>
       </c>
     </row>
@@ -38064,7 +38083,7 @@
       <c r="C571" t="s">
         <v>8</v>
       </c>
-      <c r="D571">
+      <c r="D571" s="1">
         <v>5.184</v>
       </c>
     </row>
@@ -38078,7 +38097,7 @@
       <c r="C572" t="s">
         <v>8</v>
       </c>
-      <c r="D572">
+      <c r="D572" s="1">
         <v>48.69</v>
       </c>
     </row>
@@ -38092,7 +38111,7 @@
       <c r="C573" t="s">
         <v>8</v>
       </c>
-      <c r="D573">
+      <c r="D573" s="1">
         <v>4.572</v>
       </c>
     </row>
@@ -38106,7 +38125,7 @@
       <c r="C574" t="s">
         <v>8</v>
       </c>
-      <c r="D574">
+      <c r="D574" s="1">
         <v>399.53</v>
       </c>
     </row>
@@ -38120,7 +38139,7 @@
       <c r="C575" t="s">
         <v>840</v>
       </c>
-      <c r="D575">
+      <c r="D575" s="1">
         <v>269.4</v>
       </c>
     </row>
@@ -38134,7 +38153,7 @@
       <c r="C576" t="s">
         <v>840</v>
       </c>
-      <c r="D576">
+      <c r="D576" s="1">
         <v>22.63</v>
       </c>
     </row>
@@ -38148,7 +38167,7 @@
       <c r="C577" t="s">
         <v>5</v>
       </c>
-      <c r="D577">
+      <c r="D577" s="1">
         <v>272.232</v>
       </c>
     </row>
@@ -38162,7 +38181,7 @@
       <c r="C578" t="s">
         <v>8</v>
       </c>
-      <c r="D578">
+      <c r="D578" s="1">
         <v>372.64</v>
       </c>
     </row>
@@ -38176,7 +38195,7 @@
       <c r="C579" t="s">
         <v>8</v>
       </c>
-      <c r="D579">
+      <c r="D579" s="1">
         <v>14.016</v>
       </c>
     </row>
@@ -38190,7 +38209,7 @@
       <c r="C580" t="s">
         <v>8</v>
       </c>
-      <c r="D580">
+      <c r="D580" s="1">
         <v>751.984</v>
       </c>
     </row>
@@ -38204,7 +38223,7 @@
       <c r="C581" t="s">
         <v>5</v>
       </c>
-      <c r="D581">
+      <c r="D581" s="1">
         <v>29.664</v>
       </c>
     </row>
@@ -38218,7 +38237,7 @@
       <c r="C582" t="s">
         <v>8</v>
       </c>
-      <c r="D582">
+      <c r="D582" s="1">
         <v>2361.52</v>
       </c>
     </row>
@@ -38232,7 +38251,7 @@
       <c r="C583" t="s">
         <v>840</v>
       </c>
-      <c r="D583">
+      <c r="D583" s="1">
         <v>273.088</v>
       </c>
     </row>
@@ -38246,7 +38265,7 @@
       <c r="C584" t="s">
         <v>8</v>
       </c>
-      <c r="D584">
+      <c r="D584" s="1">
         <v>15.92</v>
       </c>
     </row>
@@ -38260,7 +38279,7 @@
       <c r="C585" t="s">
         <v>8</v>
       </c>
-      <c r="D585">
+      <c r="D585" s="1">
         <v>95.616</v>
       </c>
     </row>
@@ -38274,7 +38293,7 @@
       <c r="C586" t="s">
         <v>8</v>
       </c>
-      <c r="D586">
+      <c r="D586" s="1">
         <v>35.4</v>
       </c>
     </row>
@@ -38288,7 +38307,7 @@
       <c r="C587" t="s">
         <v>8</v>
       </c>
-      <c r="D587">
+      <c r="D587" s="1">
         <v>7.904</v>
       </c>
     </row>
@@ -38302,7 +38321,7 @@
       <c r="C588" t="s">
         <v>840</v>
       </c>
-      <c r="D588">
+      <c r="D588" s="1">
         <v>301.96</v>
       </c>
     </row>
@@ -38316,7 +38335,7 @@
       <c r="C589" t="s">
         <v>8</v>
       </c>
-      <c r="D589">
+      <c r="D589" s="1">
         <v>303.32</v>
       </c>
     </row>
@@ -38330,7 +38349,7 @@
       <c r="C590" t="s">
         <v>8</v>
       </c>
-      <c r="D590">
+      <c r="D590" s="1">
         <v>1111.698</v>
       </c>
     </row>
@@ -38344,7 +38363,7 @@
       <c r="C591" t="s">
         <v>840</v>
       </c>
-      <c r="D591">
+      <c r="D591" s="1">
         <v>18</v>
       </c>
     </row>
@@ -38358,7 +38377,7 @@
       <c r="C592" t="s">
         <v>8</v>
       </c>
-      <c r="D592">
+      <c r="D592" s="1">
         <v>20.736</v>
       </c>
     </row>
@@ -38372,7 +38391,7 @@
       <c r="C593" t="s">
         <v>8</v>
       </c>
-      <c r="D593">
+      <c r="D593" s="1">
         <v>2165.658</v>
       </c>
     </row>
@@ -38386,7 +38405,7 @@
       <c r="C594" t="s">
         <v>840</v>
       </c>
-      <c r="D594">
+      <c r="D594" s="1">
         <v>11.52</v>
       </c>
     </row>
@@ -38400,7 +38419,7 @@
       <c r="C595" t="s">
         <v>840</v>
       </c>
-      <c r="D595">
+      <c r="D595" s="1">
         <v>3291.07</v>
       </c>
     </row>
@@ -38414,7 +38433,7 @@
       <c r="C596" t="s">
         <v>5</v>
       </c>
-      <c r="D596">
+      <c r="D596" s="1">
         <v>701.96</v>
       </c>
     </row>
@@ -38428,7 +38447,7 @@
       <c r="C597" t="s">
         <v>8</v>
       </c>
-      <c r="D597">
+      <c r="D597" s="1">
         <v>17.088</v>
       </c>
     </row>
@@ -38442,7 +38461,7 @@
       <c r="C598" t="s">
         <v>8</v>
       </c>
-      <c r="D598">
+      <c r="D598" s="1">
         <v>11.68</v>
       </c>
     </row>
@@ -38456,7 +38475,7 @@
       <c r="C599" t="s">
         <v>5</v>
       </c>
-      <c r="D599">
+      <c r="D599" s="1">
         <v>220.056</v>
       </c>
     </row>
@@ -38470,7 +38489,7 @@
       <c r="C600" t="s">
         <v>6</v>
       </c>
-      <c r="D600">
+      <c r="D600" s="1">
         <v>817.829</v>
       </c>
     </row>
@@ -38484,7 +38503,7 @@
       <c r="C601" t="s">
         <v>840</v>
       </c>
-      <c r="D601">
+      <c r="D601" s="1">
         <v>253.824</v>
       </c>
     </row>
@@ -38498,7 +38517,7 @@
       <c r="C602" t="s">
         <v>8</v>
       </c>
-      <c r="D602">
+      <c r="D602" s="1">
         <v>14.94</v>
       </c>
     </row>
@@ -38512,7 +38531,7 @@
       <c r="C603" t="s">
         <v>840</v>
       </c>
-      <c r="D603">
+      <c r="D603" s="1">
         <v>7.824</v>
       </c>
     </row>
@@ -38526,7 +38545,7 @@
       <c r="C604" t="s">
         <v>840</v>
       </c>
-      <c r="D604">
+      <c r="D604" s="1">
         <v>342.24</v>
       </c>
     </row>
@@ -38540,7 +38559,7 @@
       <c r="C605" t="s">
         <v>8</v>
       </c>
-      <c r="D605">
+      <c r="D605" s="1">
         <v>163.96</v>
       </c>
     </row>
@@ -38554,7 +38573,7 @@
       <c r="C606" t="s">
         <v>8</v>
       </c>
-      <c r="D606">
+      <c r="D606" s="1">
         <v>24.448</v>
       </c>
     </row>
@@ -38568,7 +38587,7 @@
       <c r="C607" t="s">
         <v>8</v>
       </c>
-      <c r="D607">
+      <c r="D607" s="1">
         <v>675.06</v>
       </c>
     </row>
@@ -38582,7 +38601,7 @@
       <c r="C608" t="s">
         <v>840</v>
       </c>
-      <c r="D608">
+      <c r="D608" s="1">
         <v>22.96</v>
       </c>
     </row>
@@ -38596,7 +38615,7 @@
       <c r="C609" t="s">
         <v>8</v>
       </c>
-      <c r="D609">
+      <c r="D609" s="1">
         <v>1446.84</v>
       </c>
     </row>
@@ -38610,7 +38629,7 @@
       <c r="C610" t="s">
         <v>8</v>
       </c>
-      <c r="D610">
+      <c r="D610" s="1">
         <v>1577.94</v>
       </c>
     </row>
@@ -38624,7 +38643,7 @@
       <c r="C611" t="s">
         <v>8</v>
       </c>
-      <c r="D611">
+      <c r="D611" s="1">
         <v>458.984</v>
       </c>
     </row>
@@ -38638,7 +38657,7 @@
       <c r="C612" t="s">
         <v>8</v>
       </c>
-      <c r="D612">
+      <c r="D612" s="1">
         <v>204.55</v>
       </c>
     </row>
@@ -38652,7 +38671,7 @@
       <c r="C613" t="s">
         <v>8</v>
       </c>
-      <c r="D613">
+      <c r="D613" s="1">
         <v>685.26</v>
       </c>
     </row>
@@ -38666,7 +38685,7 @@
       <c r="C614" t="s">
         <v>5</v>
       </c>
-      <c r="D614">
+      <c r="D614" s="1">
         <v>1883.724</v>
       </c>
     </row>
@@ -38680,7 +38699,7 @@
       <c r="C615" t="s">
         <v>8</v>
       </c>
-      <c r="D615">
+      <c r="D615" s="1">
         <v>17.856</v>
       </c>
     </row>
@@ -38694,7 +38713,7 @@
       <c r="C616" t="s">
         <v>8</v>
       </c>
-      <c r="D616">
+      <c r="D616" s="1">
         <v>1027.21</v>
       </c>
     </row>
@@ -38708,7 +38727,7 @@
       <c r="C617" t="s">
         <v>8</v>
       </c>
-      <c r="D617">
+      <c r="D617" s="1">
         <v>544.14</v>
       </c>
     </row>
@@ -38722,7 +38741,7 @@
       <c r="C618" t="s">
         <v>8</v>
       </c>
-      <c r="D618">
+      <c r="D618" s="1">
         <v>287.424</v>
       </c>
     </row>
@@ -38736,7 +38755,7 @@
       <c r="C619" t="s">
         <v>840</v>
       </c>
-      <c r="D619">
+      <c r="D619" s="1">
         <v>684.78</v>
       </c>
     </row>
@@ -38750,7 +38769,7 @@
       <c r="C620" t="s">
         <v>8</v>
       </c>
-      <c r="D620">
+      <c r="D620" s="1">
         <v>419.136</v>
       </c>
     </row>
@@ -38764,7 +38783,7 @@
       <c r="C621" t="s">
         <v>6</v>
       </c>
-      <c r="D621">
+      <c r="D621" s="1">
         <v>7.968</v>
       </c>
     </row>
@@ -38778,7 +38797,7 @@
       <c r="C622" t="s">
         <v>8</v>
       </c>
-      <c r="D622">
+      <c r="D622" s="1">
         <v>33.472</v>
       </c>
     </row>
@@ -38792,7 +38811,7 @@
       <c r="C623" t="s">
         <v>8</v>
       </c>
-      <c r="D623">
+      <c r="D623" s="1">
         <v>1090.348</v>
       </c>
     </row>
@@ -38806,7 +38825,7 @@
       <c r="C624" t="s">
         <v>8</v>
       </c>
-      <c r="D624">
+      <c r="D624" s="1">
         <v>33.74</v>
       </c>
     </row>
@@ -38820,7 +38839,7 @@
       <c r="C625" t="s">
         <v>8</v>
       </c>
-      <c r="D625">
+      <c r="D625" s="1">
         <v>201.09</v>
       </c>
     </row>
@@ -38834,7 +38853,7 @@
       <c r="C626" t="s">
         <v>5</v>
       </c>
-      <c r="D626">
+      <c r="D626" s="1">
         <v>4.464</v>
       </c>
     </row>
@@ -38848,7 +38867,7 @@
       <c r="C627" t="s">
         <v>8</v>
       </c>
-      <c r="D627">
+      <c r="D627" s="1">
         <v>39.252</v>
       </c>
     </row>
@@ -38862,7 +38881,7 @@
       <c r="C628" t="s">
         <v>8</v>
       </c>
-      <c r="D628">
+      <c r="D628" s="1">
         <v>40.41</v>
       </c>
     </row>
@@ -38876,7 +38895,7 @@
       <c r="C629" t="s">
         <v>8</v>
       </c>
-      <c r="D629">
+      <c r="D629" s="1">
         <v>23.08</v>
       </c>
     </row>
@@ -38890,7 +38909,7 @@
       <c r="C630" t="s">
         <v>840</v>
       </c>
-      <c r="D630">
+      <c r="D630" s="1">
         <v>15.992</v>
       </c>
     </row>
@@ -38904,7 +38923,7 @@
       <c r="C631" t="s">
         <v>840</v>
       </c>
-      <c r="D631">
+      <c r="D631" s="1">
         <v>19.008</v>
       </c>
     </row>
@@ -38918,7 +38937,7 @@
       <c r="C632" t="s">
         <v>8</v>
       </c>
-      <c r="D632">
+      <c r="D632" s="1">
         <v>26.72</v>
       </c>
     </row>
@@ -38932,7 +38951,7 @@
       <c r="C633" t="s">
         <v>8</v>
       </c>
-      <c r="D633">
+      <c r="D633" s="1">
         <v>27.58</v>
       </c>
     </row>
@@ -38946,7 +38965,7 @@
       <c r="C634" t="s">
         <v>8</v>
       </c>
-      <c r="D634">
+      <c r="D634" s="1">
         <v>5.78</v>
       </c>
     </row>
@@ -38960,7 +38979,7 @@
       <c r="C635" t="s">
         <v>8</v>
       </c>
-      <c r="D635">
+      <c r="D635" s="1">
         <v>45.66</v>
       </c>
     </row>
@@ -38974,7 +38993,7 @@
       <c r="C636" t="s">
         <v>840</v>
       </c>
-      <c r="D636">
+      <c r="D636" s="1">
         <v>48.87</v>
       </c>
     </row>
@@ -38988,7 +39007,7 @@
       <c r="C637" t="s">
         <v>5</v>
       </c>
-      <c r="D637">
+      <c r="D637" s="1">
         <v>204.98</v>
       </c>
     </row>
@@ -39002,7 +39021,7 @@
       <c r="C638" t="s">
         <v>5</v>
       </c>
-      <c r="D638">
+      <c r="D638" s="1">
         <v>668.54</v>
       </c>
     </row>
@@ -39016,7 +39035,7 @@
       <c r="C639" t="s">
         <v>840</v>
       </c>
-      <c r="D639">
+      <c r="D639" s="1">
         <v>866.4</v>
       </c>
     </row>
@@ -39030,7 +39049,7 @@
       <c r="C640" t="s">
         <v>8</v>
       </c>
-      <c r="D640">
+      <c r="D640" s="1">
         <v>61.876</v>
       </c>
     </row>
@@ -39044,7 +39063,7 @@
       <c r="C641" t="s">
         <v>8</v>
       </c>
-      <c r="D641">
+      <c r="D641" s="1">
         <v>64.384</v>
       </c>
     </row>
@@ -39058,7 +39077,7 @@
       <c r="C642" t="s">
         <v>5</v>
       </c>
-      <c r="D642">
+      <c r="D642" s="1">
         <v>54.66</v>
       </c>
     </row>
@@ -39072,7 +39091,7 @@
       <c r="C643" t="s">
         <v>8</v>
       </c>
-      <c r="D643">
+      <c r="D643" s="1">
         <v>2747.25</v>
       </c>
     </row>
@@ -39086,7 +39105,7 @@
       <c r="C644" t="s">
         <v>840</v>
       </c>
-      <c r="D644">
+      <c r="D644" s="1">
         <v>830.24</v>
       </c>
     </row>
@@ -39100,7 +39119,7 @@
       <c r="C645" t="s">
         <v>8</v>
       </c>
-      <c r="D645">
+      <c r="D645" s="1">
         <v>124.75</v>
       </c>
     </row>
@@ -39114,7 +39133,7 @@
       <c r="C646" t="s">
         <v>8</v>
       </c>
-      <c r="D646">
+      <c r="D646" s="1">
         <v>103.968</v>
       </c>
     </row>
@@ -39128,7 +39147,7 @@
       <c r="C647" t="s">
         <v>840</v>
       </c>
-      <c r="D647">
+      <c r="D647" s="1">
         <v>1158.12</v>
       </c>
     </row>
@@ -39142,7 +39161,7 @@
       <c r="C648" t="s">
         <v>5</v>
       </c>
-      <c r="D648">
+      <c r="D648" s="1">
         <v>1665.62</v>
       </c>
     </row>
@@ -39156,7 +39175,7 @@
       <c r="C649" t="s">
         <v>8</v>
       </c>
-      <c r="D649">
+      <c r="D649" s="1">
         <v>199.17</v>
       </c>
     </row>
@@ -39170,7 +39189,7 @@
       <c r="C650" t="s">
         <v>6</v>
       </c>
-      <c r="D650">
+      <c r="D650" s="1">
         <v>25.344</v>
       </c>
     </row>
@@ -39184,7 +39203,7 @@
       <c r="C651" t="s">
         <v>5</v>
       </c>
-      <c r="D651">
+      <c r="D651" s="1">
         <v>19.104</v>
       </c>
     </row>
@@ -39198,7 +39217,7 @@
       <c r="C652" t="s">
         <v>8</v>
       </c>
-      <c r="D652">
+      <c r="D652" s="1">
         <v>1893.786</v>
       </c>
     </row>
@@ -39212,7 +39231,7 @@
       <c r="C653" t="s">
         <v>8</v>
       </c>
-      <c r="D653">
+      <c r="D653" s="1">
         <v>4.3</v>
       </c>
     </row>
@@ -39226,7 +39245,7 @@
       <c r="C654" t="s">
         <v>5</v>
       </c>
-      <c r="D654">
+      <c r="D654" s="1">
         <v>524.85</v>
       </c>
     </row>
@@ -39240,7 +39259,7 @@
       <c r="C655" t="s">
         <v>8</v>
       </c>
-      <c r="D655">
+      <c r="D655" s="1">
         <v>691.144</v>
       </c>
     </row>
@@ -39254,7 +39273,7 @@
       <c r="C656" t="s">
         <v>8</v>
       </c>
-      <c r="D656">
+      <c r="D656" s="1">
         <v>2.78</v>
       </c>
     </row>
@@ -39268,7 +39287,7 @@
       <c r="C657" t="s">
         <v>8</v>
       </c>
-      <c r="D657">
+      <c r="D657" s="1">
         <v>10.368</v>
       </c>
     </row>
@@ -39282,7 +39301,7 @@
       <c r="C658" t="s">
         <v>8</v>
       </c>
-      <c r="D658">
+      <c r="D658" s="1">
         <v>383.992</v>
       </c>
     </row>
@@ -39296,7 +39315,7 @@
       <c r="C659" t="s">
         <v>840</v>
       </c>
-      <c r="D659">
+      <c r="D659" s="1">
         <v>25.92</v>
       </c>
     </row>
@@ -39310,7 +39329,7 @@
       <c r="C660" t="s">
         <v>8</v>
       </c>
-      <c r="D660">
+      <c r="D660" s="1">
         <v>34.5</v>
       </c>
     </row>
@@ -39324,7 +39343,7 @@
       <c r="C661" t="s">
         <v>840</v>
       </c>
-      <c r="D661">
+      <c r="D661" s="1">
         <v>477.51</v>
       </c>
     </row>
@@ -39338,7 +39357,7 @@
       <c r="C662" t="s">
         <v>6</v>
       </c>
-      <c r="D662">
+      <c r="D662" s="1">
         <v>839.25</v>
       </c>
     </row>
@@ -39352,7 +39371,7 @@
       <c r="C663" t="s">
         <v>5</v>
       </c>
-      <c r="D663">
+      <c r="D663" s="1">
         <v>726.91</v>
       </c>
     </row>
@@ -39366,7 +39385,7 @@
       <c r="C664" t="s">
         <v>8</v>
       </c>
-      <c r="D664">
+      <c r="D664" s="1">
         <v>29.84</v>
       </c>
     </row>
@@ -39380,7 +39399,7 @@
       <c r="C665" t="s">
         <v>8</v>
       </c>
-      <c r="D665">
+      <c r="D665" s="1">
         <v>361.376</v>
       </c>
     </row>
@@ -39394,7 +39413,7 @@
       <c r="C666" t="s">
         <v>840</v>
       </c>
-      <c r="D666">
+      <c r="D666" s="1">
         <v>161.14</v>
       </c>
     </row>
@@ -39408,7 +39427,7 @@
       <c r="C667" t="s">
         <v>8</v>
       </c>
-      <c r="D667">
+      <c r="D667" s="1">
         <v>8.1</v>
       </c>
     </row>
@@ -39422,7 +39441,7 @@
       <c r="C668" t="s">
         <v>5</v>
       </c>
-      <c r="D668">
+      <c r="D668" s="1">
         <v>15.57</v>
       </c>
     </row>
@@ -39436,7 +39455,7 @@
       <c r="C669" t="s">
         <v>8</v>
       </c>
-      <c r="D669">
+      <c r="D669" s="1">
         <v>30.9</v>
       </c>
     </row>
@@ -39450,7 +39469,7 @@
       <c r="C670" t="s">
         <v>8</v>
       </c>
-      <c r="D670">
+      <c r="D670" s="1">
         <v>57.01</v>
       </c>
     </row>
@@ -39464,7 +39483,7 @@
       <c r="C671" t="s">
         <v>8</v>
       </c>
-      <c r="D671">
+      <c r="D671" s="1">
         <v>608.43</v>
       </c>
     </row>
@@ -39478,7 +39497,7 @@
       <c r="C672" t="s">
         <v>5</v>
       </c>
-      <c r="D672">
+      <c r="D672" s="1">
         <v>10.816</v>
       </c>
     </row>
@@ -39492,7 +39511,7 @@
       <c r="C673" t="s">
         <v>840</v>
       </c>
-      <c r="D673">
+      <c r="D673" s="1">
         <v>79.992</v>
       </c>
     </row>
@@ -39506,7 +39525,7 @@
       <c r="C674" t="s">
         <v>5</v>
       </c>
-      <c r="D674">
+      <c r="D674" s="1">
         <v>79</v>
       </c>
     </row>
@@ -39520,7 +39539,7 @@
       <c r="C675" t="s">
         <v>840</v>
       </c>
-      <c r="D675">
+      <c r="D675" s="1">
         <v>400.39</v>
       </c>
     </row>
@@ -39534,7 +39553,7 @@
       <c r="C676" t="s">
         <v>8</v>
       </c>
-      <c r="D676">
+      <c r="D676" s="1">
         <v>286.09</v>
       </c>
     </row>
@@ -39548,7 +39567,7 @@
       <c r="C677" t="s">
         <v>8</v>
       </c>
-      <c r="D677">
+      <c r="D677" s="1">
         <v>997.83</v>
       </c>
     </row>
@@ -39562,7 +39581,7 @@
       <c r="C678" t="s">
         <v>8</v>
       </c>
-      <c r="D678">
+      <c r="D678" s="1">
         <v>47.96</v>
       </c>
     </row>
@@ -39576,7 +39595,7 @@
       <c r="C679" t="s">
         <v>8</v>
       </c>
-      <c r="D679">
+      <c r="D679" s="1">
         <v>12.84</v>
       </c>
     </row>
@@ -39590,7 +39609,7 @@
       <c r="C680" t="s">
         <v>840</v>
       </c>
-      <c r="D680">
+      <c r="D680" s="1">
         <v>728.968</v>
       </c>
     </row>
@@ -39604,7 +39623,7 @@
       <c r="C681" t="s">
         <v>8</v>
       </c>
-      <c r="D681">
+      <c r="D681" s="1">
         <v>35.04</v>
       </c>
     </row>
@@ -39618,7 +39637,7 @@
       <c r="C682" t="s">
         <v>8</v>
       </c>
-      <c r="D682">
+      <c r="D682" s="1">
         <v>32.776</v>
       </c>
     </row>
@@ -39632,7 +39651,7 @@
       <c r="C683" t="s">
         <v>8</v>
       </c>
-      <c r="D683">
+      <c r="D683" s="1">
         <v>235.44</v>
       </c>
     </row>
@@ -39646,7 +39665,7 @@
       <c r="C684" t="s">
         <v>8</v>
       </c>
-      <c r="D684">
+      <c r="D684" s="1">
         <v>47.328</v>
       </c>
     </row>
@@ -39660,7 +39679,7 @@
       <c r="C685" t="s">
         <v>840</v>
       </c>
-      <c r="D685">
+      <c r="D685" s="1">
         <v>831.368</v>
       </c>
     </row>
@@ -39674,7 +39693,7 @@
       <c r="C686" t="s">
         <v>8</v>
       </c>
-      <c r="D686">
+      <c r="D686" s="1">
         <v>113.568</v>
       </c>
     </row>
@@ -39688,7 +39707,7 @@
       <c r="C687" t="s">
         <v>8</v>
       </c>
-      <c r="D687">
+      <c r="D687" s="1">
         <v>873.811</v>
       </c>
     </row>
@@ -39702,7 +39721,7 @@
       <c r="C688" t="s">
         <v>8</v>
       </c>
-      <c r="D688">
+      <c r="D688" s="1">
         <v>5.56</v>
       </c>
     </row>
@@ -39716,7 +39735,7 @@
       <c r="C689" t="s">
         <v>8</v>
       </c>
-      <c r="D689">
+      <c r="D689" s="1">
         <v>41.91</v>
       </c>
     </row>
@@ -39730,7 +39749,7 @@
       <c r="C690" t="s">
         <v>840</v>
       </c>
-      <c r="D690">
+      <c r="D690" s="1">
         <v>737.2</v>
       </c>
     </row>
@@ -39744,7 +39763,7 @@
       <c r="C691" t="s">
         <v>8</v>
       </c>
-      <c r="D691">
+      <c r="D691" s="1">
         <v>16.272</v>
       </c>
     </row>
@@ -39758,7 +39777,7 @@
       <c r="C692" t="s">
         <v>8</v>
       </c>
-      <c r="D692">
+      <c r="D692" s="1">
         <v>170.352</v>
       </c>
     </row>
@@ -39772,7 +39791,7 @@
       <c r="C693" t="s">
         <v>6</v>
       </c>
-      <c r="D693">
+      <c r="D693" s="1">
         <v>149.9</v>
       </c>
     </row>
@@ -39786,7 +39805,7 @@
       <c r="C694" t="s">
         <v>8</v>
       </c>
-      <c r="D694">
+      <c r="D694" s="1">
         <v>1299.99</v>
       </c>
     </row>
@@ -39800,7 +39819,7 @@
       <c r="C695" t="s">
         <v>840</v>
       </c>
-      <c r="D695">
+      <c r="D695" s="1">
         <v>425.67</v>
       </c>
     </row>
@@ -39814,7 +39833,7 @@
       <c r="C696" t="s">
         <v>8</v>
       </c>
-      <c r="D696">
+      <c r="D696" s="1">
         <v>52.608</v>
       </c>
     </row>
@@ -39828,7 +39847,7 @@
       <c r="C697" t="s">
         <v>8</v>
       </c>
-      <c r="D697">
+      <c r="D697" s="1">
         <v>1215.92</v>
       </c>
     </row>
@@ -39842,7 +39861,7 @@
       <c r="C698" t="s">
         <v>8</v>
       </c>
-      <c r="D698">
+      <c r="D698" s="1">
         <v>1139.92</v>
       </c>
     </row>
@@ -39856,7 +39875,7 @@
       <c r="C699" t="s">
         <v>5</v>
       </c>
-      <c r="D699">
+      <c r="D699" s="1">
         <v>23.12</v>
       </c>
     </row>
@@ -39870,7 +39889,7 @@
       <c r="C700" t="s">
         <v>8</v>
       </c>
-      <c r="D700">
+      <c r="D700" s="1">
         <v>9.64</v>
       </c>
     </row>
@@ -39884,7 +39903,7 @@
       <c r="C701" t="s">
         <v>8</v>
       </c>
-      <c r="D701">
+      <c r="D701" s="1">
         <v>344.91</v>
       </c>
     </row>
@@ -39898,7 +39917,7 @@
       <c r="C702" t="s">
         <v>8</v>
       </c>
-      <c r="D702">
+      <c r="D702" s="1">
         <v>1859.4</v>
       </c>
     </row>
@@ -39912,7 +39931,7 @@
       <c r="C703" t="s">
         <v>8</v>
       </c>
-      <c r="D703">
+      <c r="D703" s="1">
         <v>67.194</v>
       </c>
     </row>
@@ -39926,7 +39945,7 @@
       <c r="C704" t="s">
         <v>8</v>
       </c>
-      <c r="D704">
+      <c r="D704" s="1">
         <v>252.612</v>
       </c>
     </row>
@@ -39940,7 +39959,7 @@
       <c r="C705" t="s">
         <v>8</v>
       </c>
-      <c r="D705">
+      <c r="D705" s="1">
         <v>944.61</v>
       </c>
     </row>
@@ -39954,7 +39973,7 @@
       <c r="C706" t="s">
         <v>8</v>
       </c>
-      <c r="D706">
+      <c r="D706" s="1">
         <v>310.528</v>
       </c>
     </row>
@@ -39968,7 +39987,7 @@
       <c r="C707" t="s">
         <v>8</v>
       </c>
-      <c r="D707">
+      <c r="D707" s="1">
         <v>67.76</v>
       </c>
     </row>
@@ -39982,7 +40001,7 @@
       <c r="C708" t="s">
         <v>8</v>
       </c>
-      <c r="D708">
+      <c r="D708" s="1">
         <v>18.648</v>
       </c>
     </row>
@@ -39996,7 +40015,7 @@
       <c r="C709" t="s">
         <v>8</v>
       </c>
-      <c r="D709">
+      <c r="D709" s="1">
         <v>638.82</v>
       </c>
     </row>
@@ -40010,7 +40029,7 @@
       <c r="C710" t="s">
         <v>8</v>
       </c>
-      <c r="D710">
+      <c r="D710" s="1">
         <v>115.36</v>
       </c>
     </row>
@@ -40024,7 +40043,7 @@
       <c r="C711" t="s">
         <v>8</v>
       </c>
-      <c r="D711">
+      <c r="D711" s="1">
         <v>59.109</v>
       </c>
     </row>
@@ -40038,7 +40057,7 @@
       <c r="C712" t="s">
         <v>8</v>
       </c>
-      <c r="D712">
+      <c r="D712" s="1">
         <v>103.5</v>
       </c>
     </row>
@@ -40052,7 +40071,7 @@
       <c r="C713" t="s">
         <v>8</v>
       </c>
-      <c r="D713">
+      <c r="D713" s="1">
         <v>904.13</v>
       </c>
     </row>
@@ -40066,7 +40085,7 @@
       <c r="C714" t="s">
         <v>8</v>
       </c>
-      <c r="D714">
+      <c r="D714" s="1">
         <v>15.552</v>
       </c>
     </row>
@@ -40080,7 +40099,7 @@
       <c r="C715" t="s">
         <v>5</v>
       </c>
-      <c r="D715">
+      <c r="D715" s="1">
         <v>11.672</v>
       </c>
     </row>
@@ -40094,7 +40113,7 @@
       <c r="C716" t="s">
         <v>8</v>
       </c>
-      <c r="D716">
+      <c r="D716" s="1">
         <v>979.9455</v>
       </c>
     </row>
@@ -40108,7 +40127,7 @@
       <c r="C717" t="s">
         <v>8</v>
       </c>
-      <c r="D717">
+      <c r="D717" s="1">
         <v>6.992</v>
       </c>
     </row>
@@ -40122,7 +40141,7 @@
       <c r="C718" t="s">
         <v>840</v>
       </c>
-      <c r="D718">
+      <c r="D718" s="1">
         <v>352.168</v>
       </c>
     </row>
@@ -40136,7 +40155,7 @@
       <c r="C719" t="s">
         <v>8</v>
       </c>
-      <c r="D719">
+      <c r="D719" s="1">
         <v>12.828</v>
       </c>
     </row>
@@ -40150,7 +40169,7 @@
       <c r="C720" t="s">
         <v>8</v>
       </c>
-      <c r="D720">
+      <c r="D720" s="1">
         <v>207.82</v>
       </c>
     </row>
@@ -40164,7 +40183,7 @@
       <c r="C721" t="s">
         <v>8</v>
       </c>
-      <c r="D721">
+      <c r="D721" s="1">
         <v>29.97</v>
       </c>
     </row>
@@ -40178,7 +40197,7 @@
       <c r="C722" t="s">
         <v>6</v>
       </c>
-      <c r="D722">
+      <c r="D722" s="1">
         <v>111.904</v>
       </c>
     </row>
@@ -40192,7 +40211,7 @@
       <c r="C723" t="s">
         <v>5</v>
       </c>
-      <c r="D723">
+      <c r="D723" s="1">
         <v>97.424</v>
       </c>
     </row>
@@ -40206,7 +40225,7 @@
       <c r="C724" t="s">
         <v>8</v>
       </c>
-      <c r="D724">
+      <c r="D724" s="1">
         <v>1001.76</v>
       </c>
     </row>
@@ -40220,7 +40239,7 @@
       <c r="C725" t="s">
         <v>8</v>
       </c>
-      <c r="D725">
+      <c r="D725" s="1">
         <v>157.794</v>
       </c>
     </row>
@@ -40234,7 +40253,7 @@
       <c r="C726" t="s">
         <v>840</v>
       </c>
-      <c r="D726">
+      <c r="D726" s="1">
         <v>433.78</v>
       </c>
     </row>
@@ -40248,7 +40267,7 @@
       <c r="C727" t="s">
         <v>840</v>
       </c>
-      <c r="D727">
+      <c r="D727" s="1">
         <v>38.88</v>
       </c>
     </row>
@@ -40262,7 +40281,7 @@
       <c r="C728" t="s">
         <v>8</v>
       </c>
-      <c r="D728">
+      <c r="D728" s="1">
         <v>551.264</v>
       </c>
     </row>
@@ -40276,7 +40295,7 @@
       <c r="C729" t="s">
         <v>8</v>
       </c>
-      <c r="D729">
+      <c r="D729" s="1">
         <v>125.64</v>
       </c>
     </row>
@@ -40290,7 +40309,7 @@
       <c r="C730" t="s">
         <v>840</v>
       </c>
-      <c r="D730">
+      <c r="D730" s="1">
         <v>231.92</v>
       </c>
     </row>
@@ -40304,7 +40323,7 @@
       <c r="C731" t="s">
         <v>840</v>
       </c>
-      <c r="D731">
+      <c r="D731" s="1">
         <v>85.98</v>
       </c>
     </row>
@@ -40318,7 +40337,7 @@
       <c r="C732" t="s">
         <v>8</v>
       </c>
-      <c r="D732">
+      <c r="D732" s="1">
         <v>16.712</v>
       </c>
     </row>
@@ -40332,7 +40351,7 @@
       <c r="C733" t="s">
         <v>8</v>
       </c>
-      <c r="D733">
+      <c r="D733" s="1">
         <v>13.12</v>
       </c>
     </row>
@@ -40346,7 +40365,7 @@
       <c r="C734" t="s">
         <v>8</v>
       </c>
-      <c r="D734">
+      <c r="D734" s="1">
         <v>129.64</v>
       </c>
     </row>
@@ -40360,7 +40379,7 @@
       <c r="C735" t="s">
         <v>8</v>
       </c>
-      <c r="D735">
+      <c r="D735" s="1">
         <v>459.4335</v>
       </c>
     </row>
@@ -40374,7 +40393,7 @@
       <c r="C736" t="s">
         <v>5</v>
       </c>
-      <c r="D736">
+      <c r="D736" s="1">
         <v>87.28</v>
       </c>
     </row>
@@ -40388,7 +40407,7 @@
       <c r="C737" t="s">
         <v>8</v>
       </c>
-      <c r="D737">
+      <c r="D737" s="1">
         <v>197.05</v>
       </c>
     </row>
@@ -40402,7 +40421,7 @@
       <c r="C738" t="s">
         <v>5</v>
       </c>
-      <c r="D738">
+      <c r="D738" s="1">
         <v>354.9</v>
       </c>
     </row>
@@ -40416,7 +40435,7 @@
       <c r="C739" t="s">
         <v>6</v>
       </c>
-      <c r="D739">
+      <c r="D739" s="1">
         <v>2075.51</v>
       </c>
     </row>
@@ -40430,7 +40449,7 @@
       <c r="C740" t="s">
         <v>8</v>
       </c>
-      <c r="D740">
+      <c r="D740" s="1">
         <v>334.2</v>
       </c>
     </row>
@@ -40444,7 +40463,7 @@
       <c r="C741" t="s">
         <v>8</v>
       </c>
-      <c r="D741">
+      <c r="D741" s="1">
         <v>431.976</v>
       </c>
     </row>
@@ -40458,7 +40477,7 @@
       <c r="C742" t="s">
         <v>5</v>
       </c>
-      <c r="D742">
+      <c r="D742" s="1">
         <v>645.136</v>
       </c>
     </row>
@@ -40472,7 +40491,7 @@
       <c r="C743" t="s">
         <v>5</v>
       </c>
-      <c r="D743">
+      <c r="D743" s="1">
         <v>39.92</v>
       </c>
     </row>
@@ -40486,7 +40505,7 @@
       <c r="C744" t="s">
         <v>5</v>
       </c>
-      <c r="D744">
+      <c r="D744" s="1">
         <v>59.98</v>
       </c>
     </row>
@@ -40500,7 +40519,7 @@
       <c r="C745" t="s">
         <v>840</v>
       </c>
-      <c r="D745">
+      <c r="D745" s="1">
         <v>189.882</v>
       </c>
     </row>
@@ -40514,7 +40533,7 @@
       <c r="C746" t="s">
         <v>8</v>
       </c>
-      <c r="D746">
+      <c r="D746" s="1">
         <v>1678</v>
       </c>
     </row>
@@ -40528,7 +40547,7 @@
       <c r="C747" t="s">
         <v>8</v>
       </c>
-      <c r="D747">
+      <c r="D747" s="1">
         <v>895.06</v>
       </c>
     </row>
@@ -40542,7 +40561,7 @@
       <c r="C748" t="s">
         <v>5</v>
       </c>
-      <c r="D748">
+      <c r="D748" s="1">
         <v>2.214</v>
       </c>
     </row>
@@ -40556,7 +40575,7 @@
       <c r="C749" t="s">
         <v>8</v>
       </c>
-      <c r="D749">
+      <c r="D749" s="1">
         <v>6.672</v>
       </c>
     </row>
@@ -40570,7 +40589,7 @@
       <c r="C750" t="s">
         <v>6</v>
       </c>
-      <c r="D750">
+      <c r="D750" s="1">
         <v>36.192</v>
       </c>
     </row>
@@ -40584,7 +40603,7 @@
       <c r="C751" t="s">
         <v>840</v>
       </c>
-      <c r="D751">
+      <c r="D751" s="1">
         <v>62.752</v>
       </c>
     </row>
@@ -40598,7 +40617,7 @@
       <c r="C752" t="s">
         <v>8</v>
       </c>
-      <c r="D752">
+      <c r="D752" s="1">
         <v>530.272</v>
       </c>
     </row>
@@ -40612,7 +40631,7 @@
       <c r="C753" t="s">
         <v>8</v>
       </c>
-      <c r="D753">
+      <c r="D753" s="1">
         <v>187.228</v>
       </c>
     </row>
@@ -40626,7 +40645,7 @@
       <c r="C754" t="s">
         <v>840</v>
       </c>
-      <c r="D754">
+      <c r="D754" s="1">
         <v>1319.96</v>
       </c>
     </row>
@@ -40640,7 +40659,7 @@
       <c r="C755" t="s">
         <v>8</v>
       </c>
-      <c r="D755">
+      <c r="D755" s="1">
         <v>471.078</v>
       </c>
     </row>
@@ -40654,7 +40673,7 @@
       <c r="C756" t="s">
         <v>5</v>
       </c>
-      <c r="D756">
+      <c r="D756" s="1">
         <v>56.45</v>
       </c>
     </row>
@@ -40668,7 +40687,7 @@
       <c r="C757" t="s">
         <v>840</v>
       </c>
-      <c r="D757">
+      <c r="D757" s="1">
         <v>32.064</v>
       </c>
     </row>
@@ -40682,7 +40701,7 @@
       <c r="C758" t="s">
         <v>8</v>
       </c>
-      <c r="D758">
+      <c r="D758" s="1">
         <v>17.616</v>
       </c>
     </row>
@@ -40696,7 +40715,7 @@
       <c r="C759" t="s">
         <v>8</v>
       </c>
-      <c r="D759">
+      <c r="D759" s="1">
         <v>612.14</v>
       </c>
     </row>
@@ -40710,7 +40729,7 @@
       <c r="C760" t="s">
         <v>8</v>
       </c>
-      <c r="D760">
+      <c r="D760" s="1">
         <v>16.72</v>
       </c>
     </row>
@@ -40724,7 +40743,7 @@
       <c r="C761" t="s">
         <v>6</v>
       </c>
-      <c r="D761">
+      <c r="D761" s="1">
         <v>85.224</v>
       </c>
     </row>
@@ -40738,7 +40757,7 @@
       <c r="C762" t="s">
         <v>8</v>
       </c>
-      <c r="D762">
+      <c r="D762" s="1">
         <v>191.018</v>
       </c>
     </row>
@@ -40752,7 +40771,7 @@
       <c r="C763" t="s">
         <v>8</v>
       </c>
-      <c r="D763">
+      <c r="D763" s="1">
         <v>24.703</v>
       </c>
     </row>
@@ -40766,7 +40785,7 @@
       <c r="C764" t="s">
         <v>8</v>
       </c>
-      <c r="D764">
+      <c r="D764" s="1">
         <v>29.97</v>
       </c>
     </row>
@@ -40780,7 +40799,7 @@
       <c r="C765" t="s">
         <v>5</v>
       </c>
-      <c r="D765">
+      <c r="D765" s="1">
         <v>368.432</v>
       </c>
     </row>
@@ -40794,7 +40813,7 @@
       <c r="C766" t="s">
         <v>8</v>
       </c>
-      <c r="D766">
+      <c r="D766" s="1">
         <v>13.28</v>
       </c>
     </row>
@@ -40808,7 +40827,7 @@
       <c r="C767" t="s">
         <v>6</v>
       </c>
-      <c r="D767">
+      <c r="D767" s="1">
         <v>89.32</v>
       </c>
     </row>
@@ -40822,7 +40841,7 @@
       <c r="C768" t="s">
         <v>5</v>
       </c>
-      <c r="D768">
+      <c r="D768" s="1">
         <v>3.744</v>
       </c>
     </row>
@@ -40836,7 +40855,7 @@
       <c r="C769" t="s">
         <v>8</v>
       </c>
-      <c r="D769">
+      <c r="D769" s="1">
         <v>79.12</v>
       </c>
     </row>
@@ -40850,7 +40869,7 @@
       <c r="C770" t="s">
         <v>840</v>
       </c>
-      <c r="D770">
+      <c r="D770" s="1">
         <v>82.92</v>
       </c>
     </row>
@@ -40864,7 +40883,7 @@
       <c r="C771" t="s">
         <v>5</v>
       </c>
-      <c r="D771">
+      <c r="D771" s="1">
         <v>187.616</v>
       </c>
     </row>
@@ -40878,7 +40897,7 @@
       <c r="C772" t="s">
         <v>8</v>
       </c>
-      <c r="D772">
+      <c r="D772" s="1">
         <v>12.84</v>
       </c>
     </row>
@@ -40892,7 +40911,7 @@
       <c r="C773" t="s">
         <v>8</v>
       </c>
-      <c r="D773">
+      <c r="D773" s="1">
         <v>959.968</v>
       </c>
     </row>
@@ -40906,7 +40925,7 @@
       <c r="C774" t="s">
         <v>5</v>
       </c>
-      <c r="D774">
+      <c r="D774" s="1">
         <v>678.87</v>
       </c>
     </row>
@@ -40920,7 +40939,7 @@
       <c r="C775" t="s">
         <v>840</v>
       </c>
-      <c r="D775">
+      <c r="D775" s="1">
         <v>823.61</v>
       </c>
     </row>
@@ -40934,7 +40953,7 @@
       <c r="C776" t="s">
         <v>8</v>
       </c>
-      <c r="D776">
+      <c r="D776" s="1">
         <v>299.07</v>
       </c>
     </row>
@@ -40948,7 +40967,7 @@
       <c r="C777" t="s">
         <v>8</v>
       </c>
-      <c r="D777">
+      <c r="D777" s="1">
         <v>1735.8505</v>
       </c>
     </row>
@@ -40962,7 +40981,7 @@
       <c r="C778" t="s">
         <v>8</v>
       </c>
-      <c r="D778">
+      <c r="D778" s="1">
         <v>239.92</v>
       </c>
     </row>
@@ -40976,7 +40995,7 @@
       <c r="C779" t="s">
         <v>8</v>
       </c>
-      <c r="D779">
+      <c r="D779" s="1">
         <v>3002.65</v>
       </c>
     </row>
@@ -40990,7 +41009,7 @@
       <c r="C780" t="s">
         <v>5</v>
       </c>
-      <c r="D780">
+      <c r="D780" s="1">
         <v>34.65</v>
       </c>
     </row>
@@ -41004,7 +41023,7 @@
       <c r="C781" t="s">
         <v>8</v>
       </c>
-      <c r="D781">
+      <c r="D781" s="1">
         <v>225.546</v>
       </c>
     </row>
@@ -41018,7 +41037,7 @@
       <c r="C782" t="s">
         <v>840</v>
       </c>
-      <c r="D782">
+      <c r="D782" s="1">
         <v>701.96</v>
       </c>
     </row>
@@ -41032,7 +41051,7 @@
       <c r="C783" t="s">
         <v>8</v>
       </c>
-      <c r="D783">
+      <c r="D783" s="1">
         <v>35.96</v>
       </c>
     </row>
@@ -41046,7 +41065,7 @@
       <c r="C784" t="s">
         <v>8</v>
       </c>
-      <c r="D784">
+      <c r="D784" s="1">
         <v>30.336</v>
       </c>
     </row>
@@ -41060,7 +41079,7 @@
       <c r="C785" t="s">
         <v>8</v>
       </c>
-      <c r="D785">
+      <c r="D785" s="1">
         <v>107.552</v>
       </c>
     </row>
@@ -41074,7 +41093,7 @@
       <c r="C786" t="s">
         <v>8</v>
       </c>
-      <c r="D786">
+      <c r="D786" s="1">
         <v>1633.188</v>
       </c>
     </row>
@@ -41088,7 +41107,7 @@
       <c r="C787" t="s">
         <v>6</v>
       </c>
-      <c r="D787">
+      <c r="D787" s="1">
         <v>195.64</v>
       </c>
     </row>
@@ -41102,7 +41121,7 @@
       <c r="C788" t="s">
         <v>8</v>
       </c>
-      <c r="D788">
+      <c r="D788" s="1">
         <v>198.272</v>
       </c>
     </row>
@@ -41116,7 +41135,7 @@
       <c r="C789" t="s">
         <v>8</v>
       </c>
-      <c r="D789">
+      <c r="D789" s="1">
         <v>311.96</v>
       </c>
     </row>
@@ -41130,7 +41149,7 @@
       <c r="C790" t="s">
         <v>8</v>
       </c>
-      <c r="D790">
+      <c r="D790" s="1">
         <v>76.521</v>
       </c>
     </row>
@@ -41144,7 +41163,7 @@
       <c r="C791" t="s">
         <v>5</v>
       </c>
-      <c r="D791">
+      <c r="D791" s="1">
         <v>1065.84</v>
       </c>
     </row>
@@ -41158,7 +41177,7 @@
       <c r="C792" t="s">
         <v>8</v>
       </c>
-      <c r="D792">
+      <c r="D792" s="1">
         <v>4.608</v>
       </c>
     </row>
@@ -41172,7 +41191,7 @@
       <c r="C793" t="s">
         <v>8</v>
       </c>
-      <c r="D793">
+      <c r="D793" s="1">
         <v>513.496</v>
       </c>
     </row>
@@ -41186,7 +41205,7 @@
       <c r="C794" t="s">
         <v>8</v>
       </c>
-      <c r="D794">
+      <c r="D794" s="1">
         <v>598.31</v>
       </c>
     </row>
@@ -41200,7 +41219,7 @@
       <c r="C795" t="s">
         <v>8</v>
       </c>
-      <c r="D795">
+      <c r="D795" s="1">
         <v>148.16</v>
       </c>
     </row>
@@ -41214,7 +41233,7 @@
       <c r="C796" t="s">
         <v>5</v>
       </c>
-      <c r="D796">
+      <c r="D796" s="1">
         <v>37.608</v>
       </c>
     </row>
@@ -41228,7 +41247,7 @@
       <c r="C797" t="s">
         <v>8</v>
       </c>
-      <c r="D797">
+      <c r="D797" s="1">
         <v>428.704</v>
       </c>
     </row>
@@ -41242,7 +41261,7 @@
       <c r="C798" t="s">
         <v>840</v>
       </c>
-      <c r="D798">
+      <c r="D798" s="1">
         <v>229.544</v>
       </c>
     </row>
@@ -41256,7 +41275,7 @@
       <c r="C799" t="s">
         <v>8</v>
       </c>
-      <c r="D799">
+      <c r="D799" s="1">
         <v>14.76</v>
       </c>
     </row>
@@ -41270,7 +41289,7 @@
       <c r="C800" t="s">
         <v>8</v>
       </c>
-      <c r="D800">
+      <c r="D800" s="1">
         <v>536.36</v>
       </c>
     </row>
@@ -41284,7 +41303,7 @@
       <c r="C801" t="s">
         <v>8</v>
       </c>
-      <c r="D801">
+      <c r="D801" s="1">
         <v>82.38</v>
       </c>
     </row>
@@ -41298,7 +41317,7 @@
       <c r="C802" t="s">
         <v>8</v>
       </c>
-      <c r="D802">
+      <c r="D802" s="1">
         <v>49.12</v>
       </c>
     </row>
@@ -41312,7 +41331,7 @@
       <c r="C803" t="s">
         <v>8</v>
       </c>
-      <c r="D803">
+      <c r="D803" s="1">
         <v>12.294</v>
       </c>
     </row>
@@ -41326,7 +41345,7 @@
       <c r="C804" t="s">
         <v>840</v>
       </c>
-      <c r="D804">
+      <c r="D804" s="1">
         <v>71.976</v>
       </c>
     </row>
@@ -41340,7 +41359,7 @@
       <c r="C805" t="s">
         <v>5</v>
       </c>
-      <c r="D805">
+      <c r="D805" s="1">
         <v>348.56</v>
       </c>
     </row>
@@ -41354,7 +41373,7 @@
       <c r="C806" t="s">
         <v>8</v>
       </c>
-      <c r="D806">
+      <c r="D806" s="1">
         <v>98.446</v>
       </c>
     </row>
@@ -41368,7 +41387,7 @@
       <c r="C807" t="s">
         <v>6</v>
       </c>
-      <c r="D807">
+      <c r="D807" s="1">
         <v>239.24</v>
       </c>
     </row>
@@ -41382,7 +41401,7 @@
       <c r="C808" t="s">
         <v>8</v>
       </c>
-      <c r="D808">
+      <c r="D808" s="1">
         <v>242.352</v>
       </c>
     </row>
@@ -41396,7 +41415,7 @@
       <c r="C809" t="s">
         <v>8</v>
       </c>
-      <c r="D809">
+      <c r="D809" s="1">
         <v>67.9</v>
       </c>
     </row>
@@ -41410,7 +41429,7 @@
       <c r="C810" t="s">
         <v>840</v>
       </c>
-      <c r="D810">
+      <c r="D810" s="1">
         <v>2.064</v>
       </c>
     </row>
@@ -41424,7 +41443,7 @@
       <c r="C811" t="s">
         <v>8</v>
       </c>
-      <c r="D811">
+      <c r="D811" s="1">
         <v>9.664</v>
       </c>
     </row>
@@ -41438,7 +41457,7 @@
       <c r="C812" t="s">
         <v>840</v>
       </c>
-      <c r="D812">
+      <c r="D812" s="1">
         <v>1814.68</v>
       </c>
     </row>
@@ -41452,7 +41471,7 @@
       <c r="C813" t="s">
         <v>840</v>
       </c>
-      <c r="D813">
+      <c r="D813" s="1">
         <v>732.93</v>
       </c>
     </row>
@@ -41466,7 +41485,7 @@
       <c r="C814" t="s">
         <v>5</v>
       </c>
-      <c r="D814">
+      <c r="D814" s="1">
         <v>2.896</v>
       </c>
     </row>
@@ -41480,7 +41499,7 @@
       <c r="C815" t="s">
         <v>5</v>
       </c>
-      <c r="D815">
+      <c r="D815" s="1">
         <v>2437.672</v>
       </c>
     </row>
@@ -41494,7 +41513,7 @@
       <c r="C816" t="s">
         <v>840</v>
       </c>
-      <c r="D816">
+      <c r="D816" s="1">
         <v>1152.87</v>
       </c>
     </row>
@@ -41508,7 +41527,7 @@
       <c r="C817" t="s">
         <v>840</v>
       </c>
-      <c r="D817">
+      <c r="D817" s="1">
         <v>29.16</v>
       </c>
     </row>
@@ -41522,7 +41541,7 @@
       <c r="C818" t="s">
         <v>8</v>
       </c>
-      <c r="D818">
+      <c r="D818" s="1">
         <v>71.096</v>
       </c>
     </row>
@@ -41536,7 +41555,7 @@
       <c r="C819" t="s">
         <v>8</v>
       </c>
-      <c r="D819">
+      <c r="D819" s="1">
         <v>24</v>
       </c>
     </row>
@@ -41550,7 +41569,7 @@
       <c r="C820" t="s">
         <v>8</v>
       </c>
-      <c r="D820">
+      <c r="D820" s="1">
         <v>68.742</v>
       </c>
     </row>
@@ -41564,7 +41583,7 @@
       <c r="C821" t="s">
         <v>840</v>
       </c>
-      <c r="D821">
+      <c r="D821" s="1">
         <v>1827.51</v>
       </c>
     </row>
@@ -41578,7 +41597,7 @@
       <c r="C822" t="s">
         <v>6</v>
       </c>
-      <c r="D822">
+      <c r="D822" s="1">
         <v>8167.42</v>
       </c>
     </row>
@@ -41592,12 +41611,15 @@
       <c r="C823" t="s">
         <v>8</v>
       </c>
-      <c r="D823">
+      <c r="D823" s="1">
         <v>2.808</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>